--- a/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
+++ b/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2022-2025-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C8EB3-15A8-BB4A-A1CF-9E631998DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6668A85-BCDD-ED49-80E9-C00A9FBCA9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="29">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -90,31 +90,37 @@
     <t>Cyc naup</t>
   </si>
   <si>
+    <t>Conochilus</t>
+  </si>
+  <si>
+    <t>Polyarthra</t>
+  </si>
+  <si>
+    <t>Cal naup</t>
+  </si>
+  <si>
+    <t>Conochiloides</t>
+  </si>
+  <si>
     <t>Keratella</t>
   </si>
   <si>
-    <t>K. bostoniensis</t>
+    <t>Calanoida</t>
   </si>
   <si>
-    <t>1mL</t>
+    <t>B18Sep23_9m</t>
   </si>
   <si>
-    <t>Conochilus</t>
-  </si>
-  <si>
-    <t>B. longirostris</t>
-  </si>
-  <si>
-    <t>Gastropus</t>
+    <t>1 mL</t>
   </si>
   <si>
     <t>Daphnia</t>
   </si>
   <si>
-    <t>Polyarthra</t>
+    <t>Ascomorpha</t>
   </si>
   <si>
-    <t>B22May23_10m</t>
+    <t>Ceriodaphnia</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -517,8 +523,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D320" sqref="D320:E389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="6"/>
@@ -545,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45068</v>
+        <v>45187</v>
       </c>
       <c r="C2"/>
     </row>
@@ -554,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="C3"/>
     </row>
@@ -564,7 +570,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -604,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
@@ -618,13 +624,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
@@ -638,13 +644,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>14</v>
@@ -652,21 +658,19 @@
       <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
@@ -674,19 +678,21 @@
       <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
+      <c r="A11" t="s">
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -694,21 +700,19 @@
       <c r="E11" s="3">
         <v>1000</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
@@ -716,21 +720,19 @@
       <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>14</v>
@@ -738,21 +740,19 @@
       <c r="E13" s="3">
         <v>1000</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>14</v>
@@ -760,21 +760,19 @@
       <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>8.8000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>14</v>
@@ -782,19 +780,21 @@
       <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
@@ -803,20 +803,20 @@
         <v>1000</v>
       </c>
       <c r="F16" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
@@ -824,21 +824,19 @@
       <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
@@ -852,13 +850,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -872,13 +870,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
@@ -886,21 +884,19 @@
       <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>14</v>
@@ -908,21 +904,19 @@
       <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
@@ -930,21 +924,19 @@
       <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
@@ -952,9 +944,7 @@
       <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
     </row>
@@ -966,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>14</v>
@@ -989,7 +979,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3">
         <v>1000</v>
@@ -1000,121 +990,116 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3">
         <v>1000</v>
       </c>
-      <c r="F28" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3">
         <v>1000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3">
         <v>1000</v>
       </c>
-      <c r="F30" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31"/>
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
+      </c>
       <c r="D31" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3">
         <v>1000</v>
@@ -1125,11 +1110,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32"/>
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
@@ -1140,26 +1130,38 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33"/>
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34"/>
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D34" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" s="3">
         <v>1000</v>
@@ -1170,11 +1172,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35"/>
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>2.5</v>
+      </c>
       <c r="D35" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
@@ -1185,26 +1192,38 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36"/>
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D36" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36" s="3">
         <v>1000</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4">
+        <v>0.8</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37"/>
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>1.9</v>
+      </c>
       <c r="D37" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37" s="3">
         <v>1000</v>
@@ -1215,11 +1234,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38"/>
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>1.5</v>
+      </c>
       <c r="D38" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38" s="3">
         <v>1000</v>
@@ -1230,11 +1254,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39"/>
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>1.8</v>
+      </c>
       <c r="D39" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39" s="3">
         <v>1000</v>
@@ -1245,11 +1274,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40"/>
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>1.7</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3">
         <v>1000</v>
@@ -1260,11 +1294,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41"/>
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>3.4</v>
+      </c>
       <c r="D41" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
@@ -1275,16 +1314,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42">
-        <v>8.8000000000000007</v>
+        <v>1.7</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42" s="3">
         <v>1000</v>
@@ -1304,7 +1343,7 @@
         <v>1.6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
@@ -1316,14 +1355,9 @@
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>1.2</v>
-      </c>
+      <c r="C44"/>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3">
         <v>1000</v>
@@ -1336,14 +1370,9 @@
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="C45"/>
       <c r="D45" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45" s="3">
         <v>1000</v>
@@ -1354,16 +1383,11 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C46"/>
       <c r="D46" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
@@ -1374,11 +1398,11 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
@@ -1389,16 +1413,11 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>6.1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C48"/>
       <c r="D48" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -1409,16 +1428,16 @@
     </row>
     <row r="49" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -1429,72 +1448,78 @@
     </row>
     <row r="50" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50" s="3">
         <v>1000</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
       <c r="XFD50" s="6"/>
     </row>
     <row r="51" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E51" s="3">
         <v>1000</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52"/>
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53">
-        <v>1.3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C53"/>
       <c r="D53" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53" s="3">
         <v>1000</v>
@@ -1505,16 +1530,11 @@
     </row>
     <row r="54" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>1.2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C54"/>
       <c r="D54" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
@@ -1525,55 +1545,41 @@
     </row>
     <row r="55" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C55"/>
       <c r="D55" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55" s="3">
         <v>1000</v>
       </c>
-      <c r="F55" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C56"/>
       <c r="D56" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56" s="3">
         <v>1000</v>
       </c>
-      <c r="F56" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
@@ -1584,16 +1590,11 @@
     </row>
     <row r="58" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C58"/>
       <c r="D58" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -1604,16 +1605,11 @@
     </row>
     <row r="59" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59">
-        <v>3.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C59"/>
       <c r="D59" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -1624,16 +1620,11 @@
     </row>
     <row r="60" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C60"/>
       <c r="D60" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
@@ -1644,11 +1635,11 @@
     </row>
     <row r="61" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61"/>
       <c r="D61" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
@@ -1659,11 +1650,11 @@
     </row>
     <row r="62" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -1674,11 +1665,11 @@
     </row>
     <row r="63" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E63" s="3">
         <v>1000</v>
@@ -1689,11 +1680,11 @@
     </row>
     <row r="64" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64"/>
       <c r="D64" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E64" s="3">
         <v>1000</v>
@@ -1704,11 +1695,11 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65"/>
       <c r="D65" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E65" s="3">
         <v>1000</v>
@@ -1719,11 +1710,11 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66"/>
       <c r="D66" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -1734,11 +1725,11 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E67" s="3">
         <v>1000</v>
@@ -1749,11 +1740,11 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E68" s="3">
         <v>1000</v>
@@ -1764,11 +1755,11 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69"/>
       <c r="D69" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E69" s="3">
         <v>1000</v>
@@ -1780,16 +1771,11 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70">
-        <v>3.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C70"/>
       <c r="D70" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E70" s="3">
         <v>1000</v>
@@ -1800,11 +1786,11 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71"/>
       <c r="D71" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E71" s="3">
         <v>1000</v>
@@ -1815,11 +1801,11 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72"/>
       <c r="D72" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E72" s="3">
         <v>1000</v>
@@ -1830,16 +1816,11 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <v>3.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C73"/>
       <c r="D73" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E73" s="3">
         <v>1000</v>
@@ -1850,16 +1831,11 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74">
-        <v>8.4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C74"/>
       <c r="D74" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E74" s="3">
         <v>1000</v>
@@ -1870,11 +1846,11 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75"/>
       <c r="D75" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E75" s="3">
         <v>1000</v>
@@ -1885,11 +1861,11 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76"/>
       <c r="D76" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
@@ -1900,11 +1876,11 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77"/>
       <c r="D77" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E77" s="3">
         <v>1000</v>
@@ -1915,16 +1891,11 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78">
-        <v>1.6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C78"/>
       <c r="D78" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E78" s="3">
         <v>1000</v>
@@ -1935,16 +1906,11 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79">
-        <v>5.9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C79"/>
       <c r="D79" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E79" s="3">
         <v>1000</v>
@@ -1955,16 +1921,11 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>2.6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C80"/>
       <c r="D80" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80" s="3">
         <v>1000</v>
@@ -1973,11 +1934,11 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81"/>
       <c r="D81" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
@@ -1987,16 +1948,11 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
-        <v>7.6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C82"/>
       <c r="D82" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E82" s="3">
         <v>1000</v>
@@ -2007,7 +1963,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83"/>
       <c r="D83" s="8" t="s">
@@ -2022,14 +1978,9 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84">
-        <v>1.2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C84"/>
       <c r="D84" s="8" t="s">
         <v>16</v>
       </c>
@@ -2042,7 +1993,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C85"/>
       <c r="D85" s="8" t="s">
@@ -2057,29 +2008,31 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86"/>
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>1.5</v>
+      </c>
       <c r="D86" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E86" s="3">
         <v>1000</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87">
-        <v>8.1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C87"/>
       <c r="D87" s="8" t="s">
         <v>16</v>
       </c>
@@ -2092,14 +2045,9 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88">
-        <v>5.7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C88"/>
       <c r="D88" s="8" t="s">
         <v>16</v>
       </c>
@@ -2112,14 +2060,9 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89">
-        <v>3.7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C89"/>
       <c r="D89" s="8" t="s">
         <v>16</v>
       </c>
@@ -2132,13 +2075,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>16</v>
@@ -2146,61 +2089,44 @@
       <c r="E90" s="3">
         <v>1000</v>
       </c>
-      <c r="F90" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C91"/>
       <c r="D91" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E91" s="3">
         <v>1000</v>
       </c>
-      <c r="F91" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92">
-        <v>0.9</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C92"/>
       <c r="D92" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E92" s="3">
         <v>1000</v>
       </c>
-      <c r="F92" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="3"/>
+        <v>17</v>
+      </c>
       <c r="C93"/>
       <c r="D93" s="8" t="s">
         <v>16</v>
@@ -2214,7 +2140,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94"/>
@@ -2230,7 +2156,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="10"/>
@@ -2246,7 +2172,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="10"/>
@@ -2264,15 +2190,21 @@
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="10"/>
+      <c r="B97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="10">
+        <v>1</v>
+      </c>
       <c r="D97" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E97" s="3">
         <v>1000</v>
       </c>
-      <c r="F97" s="3"/>
+      <c r="F97" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="H97" s="6"/>
     </row>
@@ -2280,21 +2212,27 @@
       <c r="A98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="10"/>
+      <c r="B98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="10">
+        <v>1.6</v>
+      </c>
       <c r="D98" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E98" s="3">
         <v>1000</v>
       </c>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
       <c r="G98" s="3"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="10"/>
@@ -2310,10 +2248,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="10">
+        <v>1.5</v>
+      </c>
       <c r="D100" s="8" t="s">
         <v>16</v>
       </c>
@@ -2325,36 +2267,51 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D101" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1.3</v>
+      </c>
       <c r="D102" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E102" s="3">
         <v>1000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.9</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B103" s="3"/>
       <c r="D103" s="8" t="s">
@@ -2368,9 +2325,14 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2.1</v>
+      </c>
       <c r="D104" s="8" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2343,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B105" s="3"/>
       <c r="D105" s="8" t="s">
@@ -2396,50 +2358,72 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
       <c r="D106" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="3">
         <v>1000</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="F106" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G106" s="3"/>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1</v>
+      </c>
       <c r="D107" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="3">
         <v>1000</v>
       </c>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G107" s="3"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1.2</v>
+      </c>
       <c r="D108" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E108" s="3">
         <v>1000</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.5</v>
       </c>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B109" s="3"/>
       <c r="D109" s="8" t="s">
@@ -2454,7 +2438,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B110" s="3"/>
       <c r="D110" s="8" t="s">
@@ -2469,14 +2453,9 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="5">
-        <v>6.2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B111" s="3"/>
       <c r="D111" s="8" t="s">
         <v>16</v>
       </c>
@@ -2489,14 +2468,9 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="5">
-        <v>3.1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B112" s="3"/>
       <c r="D112" s="8" t="s">
         <v>16</v>
       </c>
@@ -2509,14 +2483,9 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="5">
-        <v>1.6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B113" s="3"/>
       <c r="D113" s="8" t="s">
         <v>16</v>
       </c>
@@ -2529,7 +2498,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B114" s="3"/>
       <c r="D114" s="8" t="s">
@@ -2544,14 +2513,9 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="5">
-        <v>2.8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B115" s="3"/>
       <c r="D115" s="8" t="s">
         <v>16</v>
       </c>
@@ -2564,29 +2528,22 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="5">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B116" s="3"/>
       <c r="D116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E116" s="3">
         <v>1000</v>
       </c>
-      <c r="F116" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B117" s="3"/>
       <c r="D117" s="8" t="s">
@@ -2599,14 +2556,9 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="5">
-        <v>1.7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B118" s="3"/>
       <c r="D118" s="8" t="s">
         <v>16</v>
       </c>
@@ -2617,14 +2569,9 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="5">
-        <v>2.6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B119" s="3"/>
       <c r="D119" s="8" t="s">
         <v>16</v>
       </c>
@@ -2635,7 +2582,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B120" s="3"/>
       <c r="D120" s="8" t="s">
@@ -2648,14 +2595,9 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="5">
-        <v>5.9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B121" s="3"/>
       <c r="D121" s="8" t="s">
         <v>16</v>
       </c>
@@ -2665,7 +2607,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B122" s="3"/>
       <c r="D122" s="8" t="s">
@@ -2677,14 +2619,9 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="5">
-        <v>1.3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B123" s="3"/>
       <c r="D123" s="8" t="s">
         <v>16</v>
       </c>
@@ -2694,14 +2631,9 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="5">
-        <v>1.8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B124" s="3"/>
       <c r="D124" s="8" t="s">
         <v>16</v>
       </c>
@@ -2714,14 +2646,9 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="5">
-        <v>1.4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B125" s="3"/>
       <c r="D125" s="8" t="s">
         <v>16</v>
       </c>
@@ -2732,7 +2659,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B126" s="3"/>
       <c r="D126" s="8" t="s">
@@ -2745,7 +2672,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B127" s="3"/>
       <c r="D127" s="8" t="s">
@@ -2758,14 +2685,9 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="5">
-        <v>1.4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B128" s="3"/>
       <c r="D128" s="8" t="s">
         <v>16</v>
       </c>
@@ -2789,19 +2711,22 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="5">
-        <v>7.6</v>
+        <v>1.4</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E130" s="3">
         <v>1000</v>
+      </c>
+      <c r="F130">
+        <v>0.9</v>
       </c>
       <c r="H130" s="6"/>
     </row>
@@ -2820,7 +2745,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B132" s="3"/>
       <c r="D132" s="8" t="s">
@@ -2833,14 +2758,22 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B133" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="5">
+        <v>1.2</v>
+      </c>
       <c r="D133" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E133" s="3">
         <v>1000</v>
+      </c>
+      <c r="F133">
+        <v>0.9</v>
       </c>
       <c r="H133" s="4"/>
     </row>
@@ -2859,7 +2792,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B135" s="3"/>
       <c r="D135" s="8" t="s">
@@ -2874,26 +2807,18 @@
       <c r="A136" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="5">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="B136" s="3"/>
       <c r="D136" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E136" s="3">
         <v>1000</v>
-      </c>
-      <c r="F136">
-        <v>0.8</v>
       </c>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B137" s="3"/>
       <c r="D137" s="8" t="s">
@@ -2906,7 +2831,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B138" s="3"/>
       <c r="D138" s="8" t="s">
@@ -2919,7 +2844,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B139" s="3"/>
       <c r="D139" s="8" t="s">
@@ -2932,7 +2857,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B140" s="3"/>
       <c r="D140" s="8" t="s">
@@ -2945,7 +2870,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B141" s="3"/>
       <c r="D141" s="8" t="s">
@@ -2958,7 +2883,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B142" s="3"/>
       <c r="D142" s="8" t="s">
@@ -2971,7 +2896,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B143" s="3"/>
       <c r="D143" s="8" t="s">
@@ -2984,7 +2909,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B144" s="3"/>
       <c r="D144" s="8" t="s">
@@ -2997,7 +2922,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B145" s="3"/>
       <c r="D145" s="8" t="s">
@@ -3010,7 +2935,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B146" s="3"/>
       <c r="D146" s="8" t="s">
@@ -3025,7 +2950,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B147" s="3"/>
       <c r="D147" s="8" t="s">
@@ -3038,7 +2963,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B148" s="3"/>
       <c r="D148" s="8" t="s">
@@ -3051,7 +2976,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B149" s="3"/>
       <c r="D149" s="8" t="s">
@@ -3064,7 +2989,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B150" s="3"/>
       <c r="D150" s="8" t="s">
@@ -3077,7 +3002,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B151" s="3"/>
       <c r="D151" s="8" t="s">
@@ -3090,7 +3015,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B152" s="3"/>
       <c r="D152" s="8" t="s">
@@ -3103,7 +3028,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B153" s="3"/>
       <c r="D153" s="8" t="s">
@@ -3116,45 +3041,70 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B154" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.9</v>
+      </c>
       <c r="D154" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E154" s="3">
         <v>1000</v>
+      </c>
+      <c r="F154">
+        <v>0.5</v>
       </c>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="5">
+        <v>1</v>
+      </c>
       <c r="D155" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E155" s="3">
         <v>1000</v>
+      </c>
+      <c r="F155">
+        <v>0.5</v>
       </c>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E156" s="3">
         <v>1000</v>
+      </c>
+      <c r="F156">
+        <v>0.4</v>
       </c>
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>16</v>
@@ -3166,7 +3116,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>16</v>
@@ -3178,7 +3128,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="5">
+        <v>1.4</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>16</v>
@@ -3190,7 +3146,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="5">
+        <v>2.2999999999999998</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>16</v>
@@ -3202,7 +3164,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="5">
+        <v>1.7</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>16</v>
@@ -3214,7 +3182,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="5">
+        <v>2</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>16</v>
@@ -3227,7 +3201,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1.5</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>16</v>
@@ -3239,7 +3219,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="5">
+        <v>1.8</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>16</v>
@@ -3251,19 +3237,28 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="5">
+        <v>1.3</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E165" s="3">
         <v>1000</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
       </c>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>16</v>
@@ -3275,7 +3270,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>16</v>
@@ -3289,29 +3284,47 @@
       <c r="A168" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="5">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D168" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E168" s="3">
         <v>1000</v>
+      </c>
+      <c r="F168">
+        <v>0.9</v>
       </c>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E169" s="3">
         <v>1000</v>
+      </c>
+      <c r="F169">
+        <v>0.7</v>
       </c>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>16</v>
@@ -3323,7 +3336,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>16</v>
@@ -3335,7 +3348,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>16</v>
@@ -3347,7 +3360,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>16</v>
@@ -3359,7 +3372,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>16</v>
@@ -3371,7 +3384,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>16</v>
@@ -3383,13 +3396,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>16</v>
@@ -3403,11 +3410,20 @@
       <c r="A177" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="5">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D177" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E177" s="3">
         <v>1000</v>
+      </c>
+      <c r="F177">
+        <v>0.7</v>
       </c>
       <c r="H177" s="3"/>
     </row>
@@ -3425,7 +3441,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="5">
+        <v>3.1</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>16</v>
@@ -3437,7 +3459,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>16</v>
@@ -3449,7 +3471,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>16</v>
@@ -3473,13 +3495,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="5">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>16</v>
@@ -3502,13 +3524,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B185" t="s">
         <v>12</v>
       </c>
       <c r="C185" s="5">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>13</v>
@@ -3520,7 +3542,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>13</v>
@@ -3532,7 +3554,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="5">
+        <v>1.5</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>13</v>
@@ -3555,7 +3583,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>13</v>
@@ -3567,7 +3595,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="5">
+        <v>2.7</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>13</v>
@@ -3579,7 +3613,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>13</v>
@@ -3591,7 +3625,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>13</v>
@@ -3603,7 +3637,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>13</v>
@@ -3615,7 +3649,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>13</v>
@@ -3627,7 +3661,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>13</v>
@@ -3639,7 +3673,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>13</v>
@@ -3651,7 +3685,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>13</v>
@@ -3663,7 +3697,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>13</v>
@@ -3675,7 +3709,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>13</v>
@@ -3687,7 +3721,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>13</v>
@@ -3699,7 +3733,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>13</v>
@@ -3711,7 +3745,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>13</v>
@@ -3723,70 +3757,43 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E203" s="3">
         <v>1000</v>
-      </c>
-      <c r="F203">
-        <v>0.4</v>
       </c>
       <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E204" s="3">
         <v>1000</v>
-      </c>
-      <c r="F204">
-        <v>0.4</v>
       </c>
       <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E205" s="3">
         <v>1000</v>
-      </c>
-      <c r="F205">
-        <v>0.4</v>
       </c>
       <c r="H205" s="6"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>13</v>
@@ -3798,7 +3805,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>13</v>
@@ -3811,7 +3818,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>13</v>
@@ -3824,7 +3831,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>13</v>
@@ -3836,7 +3843,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>13</v>
@@ -3847,7 +3854,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>13</v>
@@ -3859,7 +3866,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>13</v>
@@ -3871,7 +3878,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>13</v>
@@ -3883,7 +3890,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>13</v>
@@ -3895,7 +3902,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>13</v>
@@ -3907,7 +3914,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>13</v>
@@ -3919,7 +3926,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>13</v>
@@ -3931,7 +3938,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>13</v>
@@ -3943,7 +3950,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>13</v>
@@ -3957,32 +3964,17 @@
       <c r="A220" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B220" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" s="5">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="D220" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="3">
         <v>1000</v>
-      </c>
-      <c r="F220">
-        <v>0.8</v>
       </c>
       <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>13</v>
@@ -3994,7 +3986,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>13</v>
@@ -4006,7 +3998,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>13</v>
@@ -4018,13 +4010,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" t="s">
-        <v>12</v>
-      </c>
-      <c r="C224" s="5">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>13</v>
@@ -4036,7 +4022,7 @@
     </row>
     <row r="225" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>13</v>
@@ -4048,7 +4034,7 @@
     </row>
     <row r="226" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>13</v>
@@ -4059,7 +4045,7 @@
     </row>
     <row r="227" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D227" s="8" t="s">
         <v>13</v>
@@ -4070,7 +4056,7 @@
     </row>
     <row r="228" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>13</v>
@@ -4081,7 +4067,7 @@
     </row>
     <row r="229" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D229" s="8" t="s">
         <v>13</v>
@@ -4092,7 +4078,7 @@
     </row>
     <row r="230" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>13</v>
@@ -4104,7 +4090,7 @@
     </row>
     <row r="231" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>13</v>
@@ -4115,7 +4101,7 @@
     </row>
     <row r="232" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>13</v>
@@ -4128,7 +4114,7 @@
     </row>
     <row r="233" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>13</v>
@@ -4140,7 +4126,7 @@
     </row>
     <row r="234" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>13</v>
@@ -4152,7 +4138,7 @@
     </row>
     <row r="235" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>13</v>
@@ -4163,7 +4149,7 @@
     </row>
     <row r="236" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>13</v>
@@ -4174,7 +4160,7 @@
     </row>
     <row r="237" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>13</v>
@@ -4186,7 +4172,7 @@
     </row>
     <row r="238" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>13</v>
@@ -4197,7 +4183,7 @@
     </row>
     <row r="239" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>13</v>
@@ -4208,7 +4194,7 @@
     </row>
     <row r="240" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>13</v>
@@ -4219,7 +4205,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>13</v>
@@ -4231,13 +4217,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" s="5">
-        <v>2.9</v>
+        <v>18</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>13</v>
@@ -4249,7 +4229,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>13</v>
@@ -4261,7 +4241,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>13</v>
@@ -4273,7 +4253,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>13</v>
@@ -4284,7 +4264,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>13</v>
@@ -4295,7 +4275,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>13</v>
@@ -4307,7 +4287,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>13</v>
@@ -4318,7 +4298,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>13</v>
@@ -4331,26 +4311,17 @@
       <c r="A250" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B250" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" s="5">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="D250" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E250" s="3">
         <v>1000</v>
-      </c>
-      <c r="F250">
-        <v>0.8</v>
       </c>
       <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>13</v>
@@ -4361,7 +4332,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>13</v>
@@ -4372,7 +4343,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>13</v>
@@ -4383,7 +4354,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>13</v>
@@ -4395,7 +4366,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>13</v>
@@ -4406,7 +4377,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>13</v>
@@ -4417,7 +4388,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>13</v>
@@ -4429,13 +4400,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" t="s">
-        <v>12</v>
-      </c>
-      <c r="C258" s="5">
-        <v>9.9</v>
+        <v>18</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>13</v>
@@ -4447,698 +4412,1574 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H261" s="4"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H271" s="4"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F272">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H275" s="4"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H276" s="4"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H277" s="4"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B281" t="s">
         <v>12</v>
       </c>
-      <c r="C259" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E259" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H259" s="6"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="3"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="3"/>
-      <c r="H261" s="4"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="3"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="3"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="3"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="3"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="3"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="3"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="3"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="3"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="3"/>
-      <c r="H266" s="6"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="3"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="3"/>
-      <c r="H267" s="6"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="3"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="3"/>
-      <c r="H268" s="6"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="3"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="3"/>
-      <c r="H269" s="6"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="3"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="3"/>
-      <c r="H270" s="3"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="3"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="3"/>
-      <c r="H271" s="4"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="3"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="3"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="3"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="3"/>
-      <c r="H273" s="3"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="3"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="3"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="3"/>
-      <c r="H275" s="4"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="3"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="3"/>
-      <c r="H276" s="4"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="3"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="3"/>
-      <c r="H277" s="4"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="3"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="3"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="3"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="3"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="3"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="3"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="3"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="3"/>
+      <c r="C281" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" s="3">
+        <v>1000</v>
+      </c>
       <c r="H281" s="6"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="3"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="3"/>
+      <c r="A282" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E282" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="3"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="3"/>
+      <c r="A283" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="3"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="3"/>
+      <c r="A284" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1000</v>
+      </c>
       <c r="H284" s="4"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="3"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="3"/>
+      <c r="A285" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E285" s="3">
+        <v>1000</v>
+      </c>
       <c r="H285" s="6"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="3"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="3"/>
+      <c r="A286" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="3"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="3"/>
+      <c r="A287" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="3"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="3"/>
+      <c r="A288" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1000</v>
+      </c>
       <c r="H288" s="4"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="3"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="3"/>
+      <c r="A289" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" s="3">
+        <v>1000</v>
+      </c>
       <c r="H289" s="6"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="3"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="3"/>
+      <c r="A290" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E290" s="3">
+        <v>1000</v>
+      </c>
       <c r="H290" s="6"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="3"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="3"/>
+      <c r="A291" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" s="3">
+        <v>1000</v>
+      </c>
       <c r="H291" s="4"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="3"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="3"/>
+      <c r="A292" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E292" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F292">
+        <v>0.8</v>
+      </c>
       <c r="H292" s="4"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="4"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="3"/>
+      <c r="A293" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="4"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="3"/>
+      <c r="A294" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="4"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="3"/>
+      <c r="A295" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" s="3">
+        <v>1000</v>
+      </c>
       <c r="H295" s="6"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="4"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="3"/>
+      <c r="A296" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E296" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" s="4"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="3"/>
+      <c r="A297" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298" s="4"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="3"/>
+      <c r="A298" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" s="3">
+        <v>1000</v>
+      </c>
       <c r="H298" s="6"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A299" s="4"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="3"/>
+      <c r="A299" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" s="4"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="3"/>
+      <c r="A300" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" s="4"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="3"/>
+      <c r="A301" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" s="3">
+        <v>1000</v>
+      </c>
       <c r="H301" s="4"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" s="4"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="3"/>
+      <c r="A302" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" s="4"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="3"/>
+      <c r="A303" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" s="3">
+        <v>1000</v>
+      </c>
       <c r="H303" s="6"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="3"/>
+      <c r="A304" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="4"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="3"/>
+      <c r="A305" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="3"/>
+      <c r="A306" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E306" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="3"/>
+      <c r="A307" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="3"/>
+      <c r="A308" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D308" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="3"/>
+      <c r="A309" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D309" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="4"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="3"/>
+      <c r="A310" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="4"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="3"/>
+      <c r="A311" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" s="4"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="3"/>
+      <c r="A312" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E312" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="3"/>
+      <c r="A313" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E313" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" s="4"/>
-      <c r="D314" s="8"/>
-      <c r="E314" s="3"/>
+      <c r="A314" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E314" s="3">
+        <v>1000</v>
+      </c>
       <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" s="4"/>
-      <c r="D315" s="8"/>
-      <c r="E315" s="3"/>
+      <c r="A315" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E315" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A316" s="4"/>
-      <c r="D316" s="8"/>
-      <c r="E316" s="3"/>
+      <c r="A316" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E316" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" s="4"/>
-      <c r="D317" s="8"/>
-      <c r="E317" s="3"/>
+      <c r="A317" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A318" s="4"/>
-      <c r="D318" s="8"/>
-      <c r="E318" s="3"/>
+      <c r="A318" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A319" s="4"/>
-      <c r="D319" s="8"/>
-      <c r="E319" s="3"/>
+      <c r="A319" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E319" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A320" s="4"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="3"/>
+      <c r="A320" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A321" s="4"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="3"/>
+      <c r="A321" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E321" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" s="4"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="3"/>
+      <c r="A322" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="4"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="3"/>
+      <c r="A323" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" s="4"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="3"/>
+      <c r="A324" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D324" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F324">
+        <v>0.8</v>
+      </c>
       <c r="H324" s="4"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A325" s="4"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="3"/>
+      <c r="A325" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A326" s="4"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="3"/>
+      <c r="A326" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" s="4"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="3"/>
+      <c r="A327" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" s="4"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="3"/>
+      <c r="A328" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E328" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F328">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" s="4"/>
-      <c r="D329" s="8"/>
-      <c r="E329" s="3"/>
+      <c r="A329" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E329" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F329">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" s="4"/>
-      <c r="D330" s="8"/>
-      <c r="E330" s="3"/>
+      <c r="A330" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E330" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F330">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A331" s="4"/>
-      <c r="D331" s="8"/>
-      <c r="E331" s="3"/>
+      <c r="A331" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A332" s="4"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="3"/>
+      <c r="A332" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B332" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F332">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A333" s="4"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="3"/>
+      <c r="A333" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F333">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A334" s="4"/>
-      <c r="D334" s="8"/>
-      <c r="E334" s="3"/>
+      <c r="A334" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E334" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="4"/>
-      <c r="D335" s="8"/>
-      <c r="E335" s="3"/>
+      <c r="A335" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="4"/>
-      <c r="D336" s="8"/>
-      <c r="E336" s="3"/>
+      <c r="A336" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E336" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" s="4"/>
-      <c r="D337" s="8"/>
-      <c r="E337" s="3"/>
+      <c r="A337" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E337" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" s="4"/>
-      <c r="D338" s="8"/>
-      <c r="E338" s="3"/>
+      <c r="A338" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E338" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="4"/>
-      <c r="D339" s="8"/>
-      <c r="E339" s="3"/>
+      <c r="A339" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E339" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="4"/>
-      <c r="D340" s="8"/>
-      <c r="E340" s="3"/>
+      <c r="A340" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D340" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E340" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="4"/>
-      <c r="D341" s="8"/>
-      <c r="E341" s="3"/>
+      <c r="A341" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E341" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="4"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="3"/>
+      <c r="A342" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D342" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E342" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" s="4"/>
-      <c r="D343" s="8"/>
-      <c r="E343" s="3"/>
+      <c r="A343" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="4"/>
-      <c r="D344" s="8"/>
-      <c r="E344" s="3"/>
+      <c r="A344" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344" s="3">
+        <v>1000</v>
+      </c>
       <c r="H344" s="6"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A345" s="4"/>
-      <c r="D345" s="8"/>
-      <c r="E345" s="3"/>
+      <c r="A345" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="4"/>
-      <c r="D346" s="8"/>
-      <c r="E346" s="3"/>
+      <c r="A346" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="4"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="3"/>
+      <c r="A347" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D347" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="4"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="3"/>
+      <c r="A348" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="4"/>
-      <c r="D349" s="8"/>
-      <c r="E349" s="3"/>
+      <c r="A349" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E349" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="4"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="3"/>
+      <c r="A350" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E350" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="4"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="3"/>
+      <c r="A351" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E351" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="4"/>
-      <c r="D352" s="8"/>
-      <c r="E352" s="3"/>
+      <c r="A352" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="4"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="3"/>
+      <c r="A353" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="4"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="3"/>
+      <c r="A354" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E354" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="4"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="3"/>
+      <c r="A355" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="4"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="3"/>
+      <c r="A356" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E356" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="4"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="3"/>
+      <c r="A357" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="4"/>
-      <c r="D358" s="8"/>
-      <c r="E358" s="3"/>
+      <c r="A358" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E358" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="4"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="3"/>
+      <c r="A359" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E359" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="4"/>
-      <c r="D360" s="8"/>
-      <c r="E360" s="3"/>
+      <c r="A360" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E360" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="4"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="3"/>
+      <c r="A361" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E361" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="4"/>
-      <c r="D362" s="8"/>
-      <c r="E362" s="3"/>
+      <c r="A362" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E362" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="4"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="3"/>
+      <c r="A363" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="4"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="3"/>
+      <c r="A364" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E364" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="4"/>
-      <c r="D365" s="8"/>
-      <c r="E365" s="3"/>
+      <c r="A365" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E365" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="4"/>
-      <c r="D366" s="8"/>
-      <c r="E366" s="3"/>
+      <c r="A366" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="4"/>
-      <c r="D367" s="8"/>
-      <c r="E367" s="3"/>
+      <c r="A367" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E367" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="4"/>
-      <c r="D368" s="8"/>
-      <c r="E368" s="3"/>
+      <c r="A368" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D368" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E368" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="4"/>
-      <c r="D369" s="8"/>
-      <c r="E369" s="3"/>
+      <c r="A369" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="4"/>
-      <c r="D370" s="8"/>
-      <c r="E370" s="3"/>
+      <c r="A370" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D370" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E370" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="4"/>
-      <c r="D371" s="8"/>
-      <c r="E371" s="3"/>
+      <c r="A371" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D371" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E371" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="4"/>
-      <c r="D372" s="8"/>
-      <c r="E372" s="3"/>
+      <c r="A372" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E372" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="4"/>
-      <c r="D373" s="8"/>
-      <c r="E373" s="3"/>
+      <c r="A373" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E373" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="4"/>
-      <c r="D374" s="8"/>
-      <c r="E374" s="3"/>
+      <c r="A374" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E374" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="4"/>
-      <c r="D375" s="8"/>
-      <c r="E375" s="3"/>
+      <c r="A375" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E375" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="4"/>
-      <c r="D376" s="8"/>
-      <c r="E376" s="3"/>
+      <c r="A376" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E376" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="4"/>
-      <c r="D377" s="8"/>
-      <c r="E377" s="3"/>
+      <c r="A377" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E377" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="4"/>
-      <c r="D378" s="8"/>
-      <c r="E378" s="3"/>
+      <c r="A378" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B378" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E378" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="4"/>
-      <c r="D379" s="8"/>
-      <c r="E379" s="3"/>
+      <c r="A379" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E379" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="4"/>
-      <c r="D380" s="8"/>
-      <c r="E380" s="3"/>
+      <c r="A380" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E380" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="4"/>
-      <c r="D381" s="8"/>
-      <c r="E381" s="3"/>
+      <c r="A381" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E381" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="4"/>
-      <c r="D382" s="8"/>
-      <c r="E382" s="3"/>
+      <c r="A382" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="4"/>
-      <c r="D383" s="8"/>
-      <c r="E383" s="3"/>
+      <c r="A383" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="4"/>
-      <c r="D384" s="8"/>
-      <c r="E384" s="3"/>
+      <c r="A384" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D384" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E384" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A385" s="4"/>
-      <c r="D385" s="8"/>
-      <c r="E385" s="3"/>
+      <c r="A385" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E385" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A386" s="4"/>
-      <c r="D386" s="8"/>
-      <c r="E386" s="3"/>
+      <c r="A386" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E386" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A387" s="4"/>
-      <c r="D387" s="8"/>
-      <c r="E387" s="3"/>
+      <c r="A387" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E387" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" s="4"/>
-      <c r="D388" s="8"/>
-      <c r="E388" s="3"/>
+      <c r="A388" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="3">
+        <v>1000</v>
+      </c>
       <c r="H388" s="3"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" s="4"/>
-      <c r="D389" s="8"/>
-      <c r="E389" s="3"/>
+      <c r="A389" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E389" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>

--- a/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
+++ b/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2022-2025-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6668A85-BCDD-ED49-80E9-C00A9FBCA9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0D2F52-16E9-0E47-89D4-9F4309FC3199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="29">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -90,16 +90,7 @@
     <t>Cyc naup</t>
   </si>
   <si>
-    <t>Conochilus</t>
-  </si>
-  <si>
-    <t>Polyarthra</t>
-  </si>
-  <si>
     <t>Cal naup</t>
-  </si>
-  <si>
-    <t>Conochiloides</t>
   </si>
   <si>
     <t>Keratella</t>
@@ -108,19 +99,28 @@
     <t>Calanoida</t>
   </si>
   <si>
-    <t>B18Sep23_9m</t>
-  </si>
-  <si>
-    <t>1 mL</t>
-  </si>
-  <si>
     <t>Daphnia</t>
   </si>
   <si>
-    <t>Ascomorpha</t>
+    <t>B. longirostris</t>
   </si>
   <si>
-    <t>Ceriodaphnia</t>
+    <t>B04Dec23_9m</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>Gastropus</t>
+  </si>
+  <si>
+    <t>Polyarthra</t>
+  </si>
+  <si>
+    <t>Lecane</t>
+  </si>
+  <si>
+    <t>Ascomorpha</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320:E389"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="6"/>
@@ -551,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45187</v>
+        <v>45264</v>
       </c>
       <c r="C2"/>
     </row>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45798</v>
+        <v>45800</v>
       </c>
       <c r="C3"/>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -604,13 +604,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
@@ -618,19 +618,21 @@
       <c r="E7" s="3">
         <v>1000</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
@@ -638,19 +640,21 @@
       <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>14</v>
@@ -658,19 +662,21 @@
       <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
@@ -678,21 +684,19 @@
       <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -700,19 +704,21 @@
       <c r="E11" s="3">
         <v>1000</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
@@ -720,19 +726,21 @@
       <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>14</v>
@@ -740,19 +748,21 @@
       <c r="E13" s="3">
         <v>1000</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
+      <c r="A14" t="s">
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>14</v>
@@ -760,19 +770,21 @@
       <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
+      <c r="A15" t="s">
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>14</v>
@@ -781,20 +793,20 @@
         <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
@@ -810,13 +822,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
@@ -824,19 +836,21 @@
       <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
@@ -844,19 +858,21 @@
       <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -864,19 +880,21 @@
       <c r="E19" s="3">
         <v>1000</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
@@ -884,19 +902,21 @@
       <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>14</v>
@@ -904,19 +924,21 @@
       <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
@@ -924,19 +946,21 @@
       <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
@@ -944,19 +968,21 @@
       <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>14</v>
@@ -964,42 +990,46 @@
       <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3">
         <v>1000</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3">
         <v>1000</v>
@@ -1010,16 +1040,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>1.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3">
         <v>1000</v>
@@ -1030,16 +1060,11 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C28"/>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3">
         <v>1000</v>
@@ -1050,16 +1075,11 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>1.7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C29"/>
       <c r="D29" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3">
         <v>1000</v>
@@ -1070,16 +1090,11 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>1.9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C30"/>
       <c r="D30" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3">
         <v>1000</v>
@@ -1090,36 +1105,38 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3">
         <v>1000</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
@@ -1130,58 +1147,53 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C33"/>
       <c r="D33" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3">
         <v>1000</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
@@ -1192,38 +1204,26 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C36"/>
       <c r="D36" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3">
         <v>1000</v>
       </c>
-      <c r="F36" s="4">
-        <v>0.8</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>1.9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C37"/>
       <c r="D37" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3">
         <v>1000</v>
@@ -1234,16 +1234,11 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>1.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C38"/>
       <c r="D38" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3">
         <v>1000</v>
@@ -1254,16 +1249,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3">
         <v>1000</v>
@@ -1274,16 +1269,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" s="3">
         <v>1000</v>
@@ -1294,16 +1289,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
@@ -1314,16 +1309,11 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>1.7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C42"/>
       <c r="D42" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3">
         <v>1000</v>
@@ -1334,16 +1324,11 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>1.6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C43"/>
       <c r="D43" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
@@ -1353,11 +1338,11 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" s="3">
         <v>1000</v>
@@ -1368,76 +1353,99 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45"/>
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>1.3</v>
+      </c>
       <c r="D45" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46"/>
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D46" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47"/>
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>1.9</v>
+      </c>
       <c r="D47" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3">
+        <v>1.4</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48"/>
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>1.2</v>
+      </c>
       <c r="D48" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>1.6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C49"/>
       <c r="D49" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -1448,46 +1456,37 @@
     </row>
     <row r="50" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C50"/>
       <c r="D50" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50" s="3">
         <v>1000</v>
       </c>
-      <c r="F50" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
       <c r="XFD50" s="6"/>
     </row>
     <row r="51" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" s="3">
         <v>1000</v>
       </c>
-      <c r="F51" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="6"/>
     </row>
@@ -1499,42 +1498,47 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53"/>
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D53" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C54"/>
       <c r="D54" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
@@ -1545,11 +1549,16 @@
     </row>
     <row r="55" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55"/>
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>3.3</v>
+      </c>
       <c r="D55" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55" s="3">
         <v>1000</v>
@@ -1560,26 +1569,38 @@
     </row>
     <row r="56" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56"/>
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>1.4</v>
+      </c>
       <c r="D56" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56" s="3">
         <v>1000</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57"/>
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>3.7</v>
+      </c>
       <c r="D57" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
@@ -1590,11 +1611,16 @@
     </row>
     <row r="58" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58"/>
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>3.3</v>
+      </c>
       <c r="D58" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -1605,11 +1631,11 @@
     </row>
     <row r="59" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -1620,11 +1646,16 @@
     </row>
     <row r="60" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60"/>
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
       <c r="D60" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
@@ -1635,26 +1666,33 @@
     </row>
     <row r="61" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61"/>
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D61" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -1665,11 +1703,11 @@
     </row>
     <row r="63" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63" s="3">
         <v>1000</v>
@@ -1680,11 +1718,16 @@
     </row>
     <row r="64" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64"/>
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>2.4</v>
+      </c>
       <c r="D64" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64" s="3">
         <v>1000</v>
@@ -1695,26 +1738,33 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65"/>
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>1.2</v>
+      </c>
       <c r="D65" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65" s="3">
         <v>1000</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C66"/>
       <c r="D66" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -1725,26 +1775,33 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67"/>
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D67" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67" s="3">
         <v>1000</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68" s="3">
         <v>1000</v>
@@ -1755,11 +1812,11 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C69"/>
       <c r="D69" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69" s="3">
         <v>1000</v>
@@ -1771,11 +1828,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70"/>
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
       <c r="D70" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70" s="3">
         <v>1000</v>
@@ -1786,41 +1848,55 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71"/>
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71" s="3">
         <v>1000</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72"/>
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>0.9</v>
+      </c>
       <c r="D72" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72" s="3">
         <v>1000</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C73"/>
       <c r="D73" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73" s="3">
         <v>1000</v>
@@ -1831,11 +1907,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74"/>
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>2.6</v>
+      </c>
       <c r="D74" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74" s="3">
         <v>1000</v>
@@ -1846,11 +1927,11 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C75"/>
       <c r="D75" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" s="3">
         <v>1000</v>
@@ -1861,11 +1942,11 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C76"/>
       <c r="D76" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
@@ -1876,11 +1957,11 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C77"/>
       <c r="D77" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77" s="3">
         <v>1000</v>
@@ -1891,26 +1972,38 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78"/>
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>1.2</v>
+      </c>
       <c r="D78" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78" s="3">
         <v>1000</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79"/>
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>2.9</v>
+      </c>
       <c r="D79" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79" s="3">
         <v>1000</v>
@@ -1921,24 +2014,31 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80"/>
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>1.2</v>
+      </c>
       <c r="D80" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80" s="3">
         <v>1000</v>
       </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C81"/>
       <c r="D81" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
@@ -1948,11 +2048,11 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C82"/>
       <c r="D82" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82" s="3">
         <v>1000</v>
@@ -1963,11 +2063,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83"/>
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>2.7</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -1978,11 +2083,11 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C84"/>
       <c r="D84" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" s="3">
         <v>1000</v>
@@ -1993,11 +2098,11 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C85"/>
       <c r="D85" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85" s="3">
         <v>1000</v>
@@ -2008,33 +2113,38 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
       </c>
       <c r="C86">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86" s="3">
         <v>1000</v>
       </c>
       <c r="F86" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87"/>
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>2.8</v>
+      </c>
       <c r="D87" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87" s="3">
         <v>1000</v>
@@ -2045,11 +2155,11 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C88"/>
       <c r="D88" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88" s="3">
         <v>1000</v>
@@ -2060,11 +2170,11 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C89"/>
       <c r="D89" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89" s="3">
         <v>1000</v>
@@ -2075,16 +2185,11 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90">
-        <v>1.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C90"/>
       <c r="D90" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90" s="3">
         <v>1000</v>
@@ -2095,26 +2200,38 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91"/>
+        <v>26</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>1.2</v>
+      </c>
       <c r="D91" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91" s="3">
         <v>1000</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92"/>
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>8.1</v>
+      </c>
       <c r="D92" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E92" s="3">
         <v>1000</v>
@@ -2125,27 +2242,38 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93"/>
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D93" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93" s="3">
         <v>1000</v>
       </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94"/>
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>4.7</v>
+      </c>
       <c r="D94" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E94" s="3">
         <v>1000</v>
@@ -2156,12 +2284,12 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="10"/>
       <c r="D95" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95" s="3">
         <v>1000</v>
@@ -2172,12 +2300,12 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="10"/>
       <c r="D96" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96" s="3">
         <v>1000</v>
@@ -2188,54 +2316,52 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97" s="3">
         <v>1000</v>
       </c>
       <c r="F97" s="3">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="10">
-        <v>1.6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E98" s="3">
         <v>1000</v>
       </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="10">
+        <v>2.9</v>
+      </c>
       <c r="D99" s="8" t="s">
         <v>16</v>
       </c>
@@ -2248,14 +2374,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="10">
-        <v>1.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="10"/>
       <c r="D100" s="8" t="s">
         <v>16</v>
       </c>
@@ -2267,53 +2389,51 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0.8</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="5">
-        <v>1.3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B102" s="3"/>
       <c r="D102" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.4</v>
+      </c>
       <c r="D103" s="8" t="s">
         <v>16</v>
       </c>
@@ -2325,14 +2445,9 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" s="5">
-        <v>2.1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B104" s="3"/>
       <c r="D104" s="8" t="s">
         <v>16</v>
       </c>
@@ -2343,7 +2458,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B105" s="3"/>
       <c r="D105" s="8" t="s">
@@ -2358,72 +2473,51 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="5">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B106" s="3"/>
       <c r="D106" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="3">
         <v>1000</v>
       </c>
-      <c r="F106" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="5">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B107" s="3"/>
       <c r="D107" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="3">
         <v>1000</v>
       </c>
-      <c r="F107" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="5">
-        <v>1.2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B108" s="3"/>
       <c r="D108" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E108" s="3">
         <v>1000</v>
       </c>
-      <c r="F108" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F108" s="3"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B109" s="3"/>
       <c r="D109" s="8" t="s">
@@ -2438,7 +2532,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B110" s="3"/>
       <c r="D110" s="8" t="s">
@@ -2453,7 +2547,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B111" s="3"/>
       <c r="D111" s="8" t="s">
@@ -2468,7 +2562,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B112" s="3"/>
       <c r="D112" s="8" t="s">
@@ -2483,7 +2577,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B113" s="3"/>
       <c r="D113" s="8" t="s">
@@ -2498,7 +2592,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B114" s="3"/>
       <c r="D114" s="8" t="s">
@@ -2513,7 +2607,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B115" s="3"/>
       <c r="D115" s="8" t="s">
@@ -2528,9 +2622,14 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="5">
+        <v>7</v>
+      </c>
       <c r="D116" s="8" t="s">
         <v>16</v>
       </c>
@@ -2543,7 +2642,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B117" s="3"/>
       <c r="D117" s="8" t="s">
@@ -2556,7 +2655,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B118" s="3"/>
       <c r="D118" s="8" t="s">
@@ -2569,7 +2668,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B119" s="3"/>
       <c r="D119" s="8" t="s">
@@ -2582,7 +2681,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B120" s="3"/>
       <c r="D120" s="8" t="s">
@@ -2595,7 +2694,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B121" s="3"/>
       <c r="D121" s="8" t="s">
@@ -2607,7 +2706,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B122" s="3"/>
       <c r="D122" s="8" t="s">
@@ -2621,7 +2720,12 @@
       <c r="A123" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="5">
+        <v>1.3</v>
+      </c>
       <c r="D123" s="8" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2735,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B124" s="3"/>
       <c r="D124" s="8" t="s">
@@ -2646,7 +2750,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B125" s="3"/>
       <c r="D125" s="8" t="s">
@@ -2659,7 +2763,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B126" s="3"/>
       <c r="D126" s="8" t="s">
@@ -2672,7 +2776,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B127" s="3"/>
       <c r="D127" s="8" t="s">
@@ -2685,7 +2789,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B128" s="3"/>
       <c r="D128" s="8" t="s">
@@ -2698,7 +2802,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B129" s="3"/>
       <c r="D129" s="8" t="s">
@@ -2711,28 +2815,20 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="5">
-        <v>1.4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B130" s="3"/>
       <c r="D130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E130" s="3">
         <v>1000</v>
-      </c>
-      <c r="F130">
-        <v>0.9</v>
       </c>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B131" s="3"/>
       <c r="D131" s="8" t="s">
@@ -2745,7 +2841,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B132" s="3"/>
       <c r="D132" s="8" t="s">
@@ -2758,30 +2854,27 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="5">
-        <v>1.2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B133" s="3"/>
       <c r="D133" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E133" s="3">
         <v>1000</v>
-      </c>
-      <c r="F133">
-        <v>0.9</v>
       </c>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B134" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="5">
+        <v>5.6</v>
+      </c>
       <c r="D134" s="8" t="s">
         <v>16</v>
       </c>
@@ -2792,9 +2885,14 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="5">
+        <v>3.5</v>
+      </c>
       <c r="D135" s="8" t="s">
         <v>16</v>
       </c>
@@ -2805,9 +2903,14 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B136" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="5">
+        <v>3.1</v>
+      </c>
       <c r="D136" s="8" t="s">
         <v>16</v>
       </c>
@@ -2818,7 +2921,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B137" s="3"/>
       <c r="D137" s="8" t="s">
@@ -2831,7 +2934,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B138" s="3"/>
       <c r="D138" s="8" t="s">
@@ -2844,7 +2947,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B139" s="3"/>
       <c r="D139" s="8" t="s">
@@ -2857,7 +2960,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B140" s="3"/>
       <c r="D140" s="8" t="s">
@@ -2870,7 +2973,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B141" s="3"/>
       <c r="D141" s="8" t="s">
@@ -2883,7 +2986,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B142" s="3"/>
       <c r="D142" s="8" t="s">
@@ -2896,9 +2999,14 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B143" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="5">
+        <v>3.4</v>
+      </c>
       <c r="D143" s="8" t="s">
         <v>16</v>
       </c>
@@ -2911,7 +3019,12 @@
       <c r="A144" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2.6</v>
+      </c>
       <c r="D144" s="8" t="s">
         <v>16</v>
       </c>
@@ -2922,9 +3035,14 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B145" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="5">
+        <v>3.1</v>
+      </c>
       <c r="D145" s="8" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +3053,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B146" s="3"/>
       <c r="D146" s="8" t="s">
@@ -2950,7 +3068,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B147" s="3"/>
       <c r="D147" s="8" t="s">
@@ -2963,7 +3081,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B148" s="3"/>
       <c r="D148" s="8" t="s">
@@ -2976,9 +3094,14 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B149" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="5">
+        <v>8.5</v>
+      </c>
       <c r="D149" s="8" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +3112,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B150" s="3"/>
       <c r="D150" s="8" t="s">
@@ -3002,7 +3125,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B151" s="3"/>
       <c r="D151" s="8" t="s">
@@ -3015,7 +3138,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B152" s="3"/>
       <c r="D152" s="8" t="s">
@@ -3028,7 +3151,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B153" s="3"/>
       <c r="D153" s="8" t="s">
@@ -3041,70 +3164,46 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="5">
-        <v>0.9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B154" s="3"/>
       <c r="D154" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E154" s="3">
         <v>1000</v>
-      </c>
-      <c r="F154">
-        <v>0.5</v>
       </c>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="5">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B155" s="3"/>
       <c r="D155" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E155" s="3">
         <v>1000</v>
-      </c>
-      <c r="F155">
-        <v>0.5</v>
       </c>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" s="5">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B156" s="3"/>
       <c r="D156" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E156" s="3">
         <v>1000</v>
-      </c>
-      <c r="F156">
-        <v>0.4</v>
       </c>
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>16</v>
@@ -3116,7 +3215,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>16</v>
@@ -3128,14 +3227,9 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="5">
-        <v>1.4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B159" s="3"/>
       <c r="D159" s="8" t="s">
         <v>16</v>
       </c>
@@ -3146,13 +3240,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C160" s="5">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>16</v>
@@ -3170,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="C161" s="5">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>16</v>
@@ -3182,14 +3276,9 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="5">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B162" s="3"/>
       <c r="D162" s="8" t="s">
         <v>16</v>
       </c>
@@ -3201,14 +3290,9 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="5">
-        <v>1.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B163" s="3"/>
       <c r="D163" s="8" t="s">
         <v>16</v>
       </c>
@@ -3219,14 +3303,9 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="5">
-        <v>1.8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B164" s="3"/>
       <c r="D164" s="8" t="s">
         <v>16</v>
       </c>
@@ -3237,28 +3316,26 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="5">
-        <v>1.3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B165" s="3"/>
       <c r="D165" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E165" s="3">
         <v>1000</v>
-      </c>
-      <c r="F165">
-        <v>1</v>
       </c>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="5">
+        <v>3.1</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>16</v>
@@ -3270,7 +3347,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>16</v>
@@ -3282,49 +3359,33 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="5">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B168" s="3"/>
       <c r="D168" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E168" s="3">
         <v>1000</v>
-      </c>
-      <c r="F168">
-        <v>0.9</v>
       </c>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="5">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B169" s="3"/>
       <c r="D169" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E169" s="3">
         <v>1000</v>
-      </c>
-      <c r="F169">
-        <v>0.7</v>
       </c>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>16</v>
@@ -3336,7 +3397,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="5">
+        <v>2.5</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>16</v>
@@ -3348,7 +3415,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>16</v>
@@ -3360,7 +3427,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>16</v>
@@ -3372,7 +3439,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>16</v>
@@ -3384,7 +3451,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>16</v>
@@ -3396,7 +3463,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>16</v>
@@ -3408,13 +3475,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B177" t="s">
         <v>12</v>
       </c>
       <c r="C177" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>16</v>
@@ -3423,13 +3490,13 @@
         <v>1000</v>
       </c>
       <c r="F177">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>16</v>
@@ -3441,13 +3508,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" s="5">
-        <v>3.1</v>
+        <v>25</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>16</v>
@@ -3459,7 +3520,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>16</v>
@@ -3471,7 +3532,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>16</v>
@@ -3483,25 +3544,34 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E182" s="3">
         <v>1000</v>
+      </c>
+      <c r="F182">
+        <v>0.8</v>
       </c>
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>16</v>
@@ -3512,10 +3582,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E184" s="3">
         <v>1000</v>
@@ -3524,16 +3594,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" s="5">
-        <v>1.7</v>
+        <v>25</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E185" s="3">
         <v>1000</v>
@@ -3542,10 +3606,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E186" s="3">
         <v>1000</v>
@@ -3554,16 +3618,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" s="5">
-        <v>1.5</v>
+        <v>26</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E187" s="3">
         <v>1000</v>
@@ -3572,10 +3630,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E188" s="3">
         <v>1000</v>
@@ -3583,10 +3641,10 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E189" s="3">
         <v>1000</v>
@@ -3595,16 +3653,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" s="5">
-        <v>2.7</v>
+        <v>25</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E190" s="3">
         <v>1000</v>
@@ -3613,10 +3665,10 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E191" s="3">
         <v>1000</v>
@@ -3625,10 +3677,16 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="5">
+        <v>3</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E192" s="3">
         <v>1000</v>
@@ -3637,10 +3695,16 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="5">
+        <v>2.9</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E193" s="3">
         <v>1000</v>
@@ -3651,8 +3715,14 @@
       <c r="A194" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="5">
+        <v>2.6</v>
+      </c>
       <c r="D194" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E194" s="3">
         <v>1000</v>
@@ -3661,10 +3731,10 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E195" s="3">
         <v>1000</v>
@@ -3673,10 +3743,10 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E196" s="3">
         <v>1000</v>
@@ -3685,10 +3755,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E197" s="3">
         <v>1000</v>
@@ -3699,8 +3769,14 @@
       <c r="A198" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="5">
+        <v>2.7</v>
+      </c>
       <c r="D198" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E198" s="3">
         <v>1000</v>
@@ -3709,10 +3785,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E199" s="3">
         <v>1000</v>
@@ -3721,7 +3797,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>13</v>
@@ -3733,7 +3809,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>13</v>
@@ -3745,7 +3821,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>13</v>
@@ -3757,7 +3833,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="5">
+        <v>3.6</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>13</v>
@@ -3769,7 +3851,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>13</v>
@@ -3781,7 +3863,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>13</v>
@@ -3793,7 +3875,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D206" s="8" t="s">
         <v>13</v>
@@ -3805,20 +3887,29 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="5">
+        <v>1.2</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E207" s="3">
         <v>1000</v>
+      </c>
+      <c r="F207">
+        <v>1.1000000000000001</v>
       </c>
       <c r="G207" s="6"/>
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>13</v>
@@ -3831,7 +3922,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>13</v>
@@ -3843,7 +3934,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>13</v>
@@ -3854,7 +3945,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="5">
+        <v>3.2</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>13</v>
@@ -3866,7 +3963,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>13</v>
@@ -3878,7 +3975,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>13</v>
@@ -3890,7 +3987,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>13</v>
@@ -3902,7 +3999,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>13</v>
@@ -3914,7 +4011,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>13</v>
@@ -3926,7 +4023,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>13</v>
@@ -3938,7 +4035,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>13</v>
@@ -3950,7 +4047,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>13</v>
@@ -3962,7 +4059,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D220" s="8" t="s">
         <v>13</v>
@@ -3974,7 +4071,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="5">
+        <v>7.7</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>13</v>
@@ -3988,6 +4091,12 @@
       <c r="A222" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="5">
+        <v>3</v>
+      </c>
       <c r="D222" s="8" t="s">
         <v>13</v>
       </c>
@@ -3998,7 +4107,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>13</v>
@@ -4010,7 +4119,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>13</v>
@@ -4022,7 +4131,7 @@
     </row>
     <row r="225" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>13</v>
@@ -4034,7 +4143,13 @@
     </row>
     <row r="226" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="5">
+        <v>2.1</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>13</v>
@@ -4045,7 +4160,7 @@
     </row>
     <row r="227" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D227" s="8" t="s">
         <v>13</v>
@@ -4056,7 +4171,7 @@
     </row>
     <row r="228" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>13</v>
@@ -4067,7 +4182,7 @@
     </row>
     <row r="229" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D229" s="8" t="s">
         <v>13</v>
@@ -4078,7 +4193,7 @@
     </row>
     <row r="230" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>13</v>
@@ -4090,7 +4205,7 @@
     </row>
     <row r="231" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>13</v>
@@ -4101,7 +4216,7 @@
     </row>
     <row r="232" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>13</v>
@@ -4114,7 +4229,7 @@
     </row>
     <row r="233" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>13</v>
@@ -4126,7 +4241,7 @@
     </row>
     <row r="234" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>13</v>
@@ -4138,7 +4253,7 @@
     </row>
     <row r="235" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>13</v>
@@ -4149,7 +4264,7 @@
     </row>
     <row r="236" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>13</v>
@@ -4160,7 +4275,7 @@
     </row>
     <row r="237" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>13</v>
@@ -4172,7 +4287,7 @@
     </row>
     <row r="238" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>13</v>
@@ -4183,7 +4298,7 @@
     </row>
     <row r="239" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>13</v>
@@ -4194,7 +4309,7 @@
     </row>
     <row r="240" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>13</v>
@@ -4205,7 +4320,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>13</v>
@@ -4217,7 +4332,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>13</v>
@@ -4229,7 +4344,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>13</v>
@@ -4241,7 +4356,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>13</v>
@@ -4253,7 +4368,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>13</v>
@@ -4264,18 +4379,33 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="5">
+        <v>0.8</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E246" s="3">
         <v>1000</v>
+      </c>
+      <c r="F246">
+        <v>0.6</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="5">
+        <v>3.2</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>13</v>
@@ -4287,7 +4417,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="5">
+        <v>5.9</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>13</v>
@@ -4298,7 +4434,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="5">
+        <v>4.4000000000000004</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>13</v>
@@ -4309,7 +4451,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D250" s="8" t="s">
         <v>13</v>
@@ -4321,7 +4463,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>13</v>
@@ -4332,7 +4474,13 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="5">
+        <v>4.9000000000000004</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>13</v>
@@ -4343,7 +4491,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>13</v>
@@ -4354,7 +4502,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>13</v>
@@ -4366,7 +4514,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>13</v>
@@ -4377,7 +4525,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>13</v>
@@ -4388,7 +4536,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>13</v>
@@ -4400,7 +4548,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>13</v>
@@ -4412,7 +4560,13 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="5">
+        <v>4.8</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>13</v>
@@ -4424,7 +4578,13 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="5">
+        <v>2.9</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>13</v>
@@ -4435,7 +4595,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>13</v>
@@ -4447,7 +4607,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="5">
+        <v>3.9</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>13</v>
@@ -4458,7 +4624,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>13</v>
@@ -4469,7 +4635,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>13</v>
@@ -4480,7 +4646,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="5">
+        <v>2.8</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>13</v>
@@ -4491,7 +4663,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>13</v>
@@ -4503,7 +4675,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D267" s="8" t="s">
         <v>13</v>
@@ -4515,7 +4687,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>13</v>
@@ -4527,7 +4699,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D269" s="8" t="s">
         <v>13</v>
@@ -4539,7 +4711,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>13</v>
@@ -4551,7 +4723,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>13</v>
@@ -4563,27 +4735,30 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B272" t="s">
         <v>12</v>
       </c>
       <c r="C272" s="5">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E272" s="3">
         <v>1000</v>
-      </c>
-      <c r="F272">
-        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="5">
+        <v>3.3</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>13</v>
@@ -4595,7 +4770,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="5">
+        <v>3.3</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>13</v>
@@ -4606,19 +4787,28 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E275" s="3">
         <v>1000</v>
+      </c>
+      <c r="F275">
+        <v>0.8</v>
       </c>
       <c r="H275" s="4"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D276" s="8" t="s">
         <v>13</v>
@@ -4630,7 +4820,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D277" s="8" t="s">
         <v>13</v>
@@ -4642,7 +4832,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>13</v>
@@ -4653,7 +4843,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D279" s="8" t="s">
         <v>13</v>
@@ -4666,6 +4856,12 @@
       <c r="A280" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="5">
+        <v>1.6</v>
+      </c>
       <c r="D280" s="8" t="s">
         <v>13</v>
       </c>
@@ -4675,13 +4871,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" t="s">
-        <v>12</v>
-      </c>
-      <c r="C281" s="5">
-        <v>2.1</v>
+        <v>25</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>13</v>
@@ -4693,13 +4883,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B282" t="s">
-        <v>12</v>
-      </c>
-      <c r="C282" s="5">
-        <v>7.8</v>
+        <v>25</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>13</v>
@@ -4710,7 +4894,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D283" s="8" t="s">
         <v>13</v>
@@ -4721,7 +4905,13 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" s="5">
+        <v>2.9</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>13</v>
@@ -4733,7 +4923,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>13</v>
@@ -4745,7 +4935,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>13</v>
@@ -4756,7 +4946,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D287" s="8" t="s">
         <v>13</v>
@@ -4767,7 +4957,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D288" s="8" t="s">
         <v>13</v>
@@ -4779,7 +4969,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D289" s="8" t="s">
         <v>13</v>
@@ -4791,13 +4981,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B290" t="s">
-        <v>12</v>
-      </c>
-      <c r="C290" s="5">
-        <v>5.6</v>
+        <v>25</v>
       </c>
       <c r="D290" s="8" t="s">
         <v>13</v>
@@ -4809,7 +4993,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D291" s="8" t="s">
         <v>13</v>
@@ -4821,28 +5005,19 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B292" t="s">
-        <v>12</v>
-      </c>
-      <c r="C292" s="5">
-        <v>1.1000000000000001</v>
+        <v>25</v>
       </c>
       <c r="D292" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E292" s="3">
         <v>1000</v>
-      </c>
-      <c r="F292">
-        <v>0.8</v>
       </c>
       <c r="H292" s="4"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D293" s="8" t="s">
         <v>13</v>
@@ -4853,7 +5028,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>13</v>
@@ -4864,7 +5039,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>13</v>
@@ -4876,7 +5051,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D296" s="8" t="s">
         <v>13</v>
@@ -4887,7 +5062,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D297" s="8" t="s">
         <v>13</v>
@@ -4898,7 +5073,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>13</v>
@@ -4910,7 +5085,13 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="5">
+        <v>2.8</v>
       </c>
       <c r="D299" s="8" t="s">
         <v>13</v>
@@ -4921,7 +5102,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>13</v>
@@ -4932,7 +5113,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>13</v>
@@ -4943,1043 +5124,449 @@
       <c r="H301" s="4"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D302" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E302" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A302" s="4"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E303" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A303" s="4"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="3"/>
       <c r="H303" s="6"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D304" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E304" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A304" s="4"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D305" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E305" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A305" s="4"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D306" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E306" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A306" s="4"/>
+      <c r="D306" s="8"/>
+      <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E307" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A307" s="4"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D308" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E308" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A308" s="4"/>
+      <c r="D308" s="8"/>
+      <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D309" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E309" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A309" s="4"/>
+      <c r="D309" s="8"/>
+      <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E310" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A310" s="4"/>
+      <c r="D310" s="8"/>
+      <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D311" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E311" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A311" s="4"/>
+      <c r="D311" s="8"/>
+      <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E312" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A312" s="4"/>
+      <c r="D312" s="8"/>
+      <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E313" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A313" s="4"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E314" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A314" s="4"/>
+      <c r="D314" s="8"/>
+      <c r="E314" s="3"/>
       <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E315" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A315" s="4"/>
+      <c r="D315" s="8"/>
+      <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A316" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E316" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A316" s="4"/>
+      <c r="D316" s="8"/>
+      <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E317" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A317" s="4"/>
+      <c r="D317" s="8"/>
+      <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A318" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D318" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E318" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A318" s="4"/>
+      <c r="D318" s="8"/>
+      <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A319" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D319" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E319" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A319" s="4"/>
+      <c r="D319" s="8"/>
+      <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A320" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E320" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A320" s="4"/>
+      <c r="D320" s="8"/>
+      <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A321" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D321" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E321" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A321" s="4"/>
+      <c r="D321" s="8"/>
+      <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D322" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E322" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A322" s="4"/>
+      <c r="D322" s="8"/>
+      <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D323" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E323" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A323" s="4"/>
+      <c r="D323" s="8"/>
+      <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B324" t="s">
-        <v>12</v>
-      </c>
-      <c r="C324" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E324" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F324">
-        <v>0.8</v>
-      </c>
+      <c r="A324" s="4"/>
+      <c r="D324" s="8"/>
+      <c r="E324" s="3"/>
       <c r="H324" s="4"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A325" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B325" t="s">
-        <v>12</v>
-      </c>
-      <c r="C325" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D325" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E325" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A325" s="4"/>
+      <c r="D325" s="8"/>
+      <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A326" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E326" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A326" s="4"/>
+      <c r="D326" s="8"/>
+      <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D327" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E327" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A327" s="4"/>
+      <c r="D327" s="8"/>
+      <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B328" t="s">
-        <v>12</v>
-      </c>
-      <c r="C328" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E328" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F328">
-        <v>0.7</v>
-      </c>
+      <c r="A328" s="4"/>
+      <c r="D328" s="8"/>
+      <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B329" t="s">
-        <v>12</v>
-      </c>
-      <c r="C329" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E329" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F329">
-        <v>0.8</v>
-      </c>
+      <c r="A329" s="4"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B330" t="s">
-        <v>12</v>
-      </c>
-      <c r="C330" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E330" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F330">
-        <v>0.8</v>
-      </c>
+      <c r="A330" s="4"/>
+      <c r="D330" s="8"/>
+      <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A331" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D331" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E331" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A331" s="4"/>
+      <c r="D331" s="8"/>
+      <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A332" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B332" t="s">
-        <v>12</v>
-      </c>
-      <c r="C332" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D332" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E332" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F332">
-        <v>0.8</v>
-      </c>
+      <c r="A332" s="4"/>
+      <c r="D332" s="8"/>
+      <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A333" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B333" t="s">
-        <v>12</v>
-      </c>
-      <c r="C333" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E333" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F333">
-        <v>0.8</v>
-      </c>
+      <c r="A333" s="4"/>
+      <c r="D333" s="8"/>
+      <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A334" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D334" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E334" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A334" s="4"/>
+      <c r="D334" s="8"/>
+      <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D335" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E335" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A335" s="4"/>
+      <c r="D335" s="8"/>
+      <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E336" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A336" s="4"/>
+      <c r="D336" s="8"/>
+      <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E337" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A337" s="4"/>
+      <c r="D337" s="8"/>
+      <c r="E337" s="3"/>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D338" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E338" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A338" s="4"/>
+      <c r="D338" s="8"/>
+      <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D339" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E339" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A339" s="4"/>
+      <c r="D339" s="8"/>
+      <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D340" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E340" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A340" s="4"/>
+      <c r="D340" s="8"/>
+      <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D341" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E341" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A341" s="4"/>
+      <c r="D341" s="8"/>
+      <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D342" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E342" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A342" s="4"/>
+      <c r="D342" s="8"/>
+      <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D343" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E343" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A343" s="4"/>
+      <c r="D343" s="8"/>
+      <c r="E343" s="3"/>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D344" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E344" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A344" s="4"/>
+      <c r="D344" s="8"/>
+      <c r="E344" s="3"/>
       <c r="H344" s="6"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A345" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D345" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E345" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A345" s="4"/>
+      <c r="D345" s="8"/>
+      <c r="E345" s="3"/>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D346" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E346" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A346" s="4"/>
+      <c r="D346" s="8"/>
+      <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D347" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E347" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A347" s="4"/>
+      <c r="D347" s="8"/>
+      <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D348" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E348" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A348" s="4"/>
+      <c r="D348" s="8"/>
+      <c r="E348" s="3"/>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D349" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E349" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A349" s="4"/>
+      <c r="D349" s="8"/>
+      <c r="E349" s="3"/>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D350" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E350" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A350" s="4"/>
+      <c r="D350" s="8"/>
+      <c r="E350" s="3"/>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D351" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E351" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A351" s="4"/>
+      <c r="D351" s="8"/>
+      <c r="E351" s="3"/>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D352" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E352" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A352" s="4"/>
+      <c r="D352" s="8"/>
+      <c r="E352" s="3"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E353" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A353" s="4"/>
+      <c r="D353" s="8"/>
+      <c r="E353" s="3"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D354" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E354" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A354" s="4"/>
+      <c r="D354" s="8"/>
+      <c r="E354" s="3"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E355" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A355" s="4"/>
+      <c r="D355" s="8"/>
+      <c r="E355" s="3"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E356" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A356" s="4"/>
+      <c r="D356" s="8"/>
+      <c r="E356" s="3"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D357" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E357" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A357" s="4"/>
+      <c r="D357" s="8"/>
+      <c r="E357" s="3"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D358" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E358" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A358" s="4"/>
+      <c r="D358" s="8"/>
+      <c r="E358" s="3"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D359" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E359" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A359" s="4"/>
+      <c r="D359" s="8"/>
+      <c r="E359" s="3"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D360" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E360" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A360" s="4"/>
+      <c r="D360" s="8"/>
+      <c r="E360" s="3"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D361" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E361" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A361" s="4"/>
+      <c r="D361" s="8"/>
+      <c r="E361" s="3"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D362" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E362" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A362" s="4"/>
+      <c r="D362" s="8"/>
+      <c r="E362" s="3"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D363" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E363" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A363" s="4"/>
+      <c r="D363" s="8"/>
+      <c r="E363" s="3"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D364" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E364" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A364" s="4"/>
+      <c r="D364" s="8"/>
+      <c r="E364" s="3"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D365" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E365" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A365" s="4"/>
+      <c r="D365" s="8"/>
+      <c r="E365" s="3"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D366" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E366" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A366" s="4"/>
+      <c r="D366" s="8"/>
+      <c r="E366" s="3"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D367" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E367" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A367" s="4"/>
+      <c r="D367" s="8"/>
+      <c r="E367" s="3"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D368" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E368" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A368" s="4"/>
+      <c r="D368" s="8"/>
+      <c r="E368" s="3"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D369" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E369" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A369" s="4"/>
+      <c r="D369" s="8"/>
+      <c r="E369" s="3"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D370" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E370" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A370" s="4"/>
+      <c r="D370" s="8"/>
+      <c r="E370" s="3"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D371" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E371" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A371" s="4"/>
+      <c r="D371" s="8"/>
+      <c r="E371" s="3"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D372" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E372" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A372" s="4"/>
+      <c r="D372" s="8"/>
+      <c r="E372" s="3"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D373" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E373" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A373" s="4"/>
+      <c r="D373" s="8"/>
+      <c r="E373" s="3"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D374" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E374" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A374" s="4"/>
+      <c r="D374" s="8"/>
+      <c r="E374" s="3"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D375" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E375" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A375" s="4"/>
+      <c r="D375" s="8"/>
+      <c r="E375" s="3"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D376" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E376" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A376" s="4"/>
+      <c r="D376" s="8"/>
+      <c r="E376" s="3"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D377" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E377" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A377" s="4"/>
+      <c r="D377" s="8"/>
+      <c r="E377" s="3"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B378" t="s">
-        <v>12</v>
-      </c>
-      <c r="C378" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="D378" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E378" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A378" s="4"/>
+      <c r="D378" s="8"/>
+      <c r="E378" s="3"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D379" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E379" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A379" s="4"/>
+      <c r="D379" s="8"/>
+      <c r="E379" s="3"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D380" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E380" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A380" s="4"/>
+      <c r="D380" s="8"/>
+      <c r="E380" s="3"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D381" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E381" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A381" s="4"/>
+      <c r="D381" s="8"/>
+      <c r="E381" s="3"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D382" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E382" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A382" s="4"/>
+      <c r="D382" s="8"/>
+      <c r="E382" s="3"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D383" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E383" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A383" s="4"/>
+      <c r="D383" s="8"/>
+      <c r="E383" s="3"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D384" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E384" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A384" s="4"/>
+      <c r="D384" s="8"/>
+      <c r="E384" s="3"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A385" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E385" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A385" s="4"/>
+      <c r="D385" s="8"/>
+      <c r="E385" s="3"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A386" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E386" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A386" s="4"/>
+      <c r="D386" s="8"/>
+      <c r="E386" s="3"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A387" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D387" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E387" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A387" s="4"/>
+      <c r="D387" s="8"/>
+      <c r="E387" s="3"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D388" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E388" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A388" s="4"/>
+      <c r="D388" s="8"/>
+      <c r="E388" s="3"/>
       <c r="H388" s="3"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E389" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A389" s="4"/>
+      <c r="D389" s="8"/>
+      <c r="E389" s="3"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>

--- a/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
+++ b/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2022-2025-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0D2F52-16E9-0E47-89D4-9F4309FC3199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1437338-0F38-B743-80D4-499A3C290F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="31">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -90,37 +90,43 @@
     <t>Cyc naup</t>
   </si>
   <si>
+    <t>Keratella</t>
+  </si>
+  <si>
     <t>Cal naup</t>
   </si>
   <si>
-    <t>Keratella</t>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>Ceriodaphnia</t>
+  </si>
+  <si>
+    <t>Conochiloides</t>
+  </si>
+  <si>
+    <t>B23Sep24_9m</t>
+  </si>
+  <si>
+    <t>Daphnia</t>
+  </si>
+  <si>
+    <t>K. bostoniensis</t>
+  </si>
+  <si>
+    <t>Polyarthra</t>
   </si>
   <si>
     <t>Calanoida</t>
   </si>
   <si>
-    <t>Daphnia</t>
-  </si>
-  <si>
     <t>B. longirostris</t>
   </si>
   <si>
-    <t>B04Dec23_9m</t>
+    <t>Hexarthra</t>
   </si>
   <si>
-    <t>2 mL</t>
-  </si>
-  <si>
-    <t>Gastropus</t>
-  </si>
-  <si>
-    <t>Polyarthra</t>
-  </si>
-  <si>
-    <t>Lecane</t>
-  </si>
-  <si>
-    <t>Ascomorpha</t>
+    <t>Conochilus</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676C963-F956-4A49-8829-4831A47E6094}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:XFD1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45264</v>
+        <v>45558</v>
       </c>
       <c r="C2"/>
     </row>
@@ -560,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45800</v>
+        <v>45451</v>
       </c>
       <c r="C3"/>
     </row>
@@ -570,7 +576,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -604,13 +610,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
@@ -618,9 +624,7 @@
       <c r="E7" s="3">
         <v>1000</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="6"/>
     </row>
@@ -641,20 +645,20 @@
         <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>14</v>
@@ -662,21 +666,19 @@
       <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
@@ -690,13 +692,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -704,21 +706,19 @@
       <c r="E11" s="3">
         <v>1000</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
@@ -726,21 +726,19 @@
       <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>14</v>
@@ -748,21 +746,19 @@
       <c r="E13" s="3">
         <v>1000</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>14</v>
@@ -771,20 +767,20 @@
         <v>1000</v>
       </c>
       <c r="F14" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>14</v>
@@ -792,21 +788,19 @@
       <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
@@ -814,21 +808,19 @@
       <c r="E16" s="3">
         <v>1000</v>
       </c>
-      <c r="F16" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
@@ -836,21 +828,19 @@
       <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
@@ -858,21 +848,19 @@
       <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -880,21 +868,19 @@
       <c r="E19" s="3">
         <v>1000</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>1.1000000000000001</v>
+        <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
@@ -902,15 +888,13 @@
       <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -924,21 +908,19 @@
       <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
@@ -946,15 +928,13 @@
       <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -969,20 +949,20 @@
         <v>1000</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>14</v>
@@ -990,21 +970,19 @@
       <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>14</v>
@@ -1012,21 +990,19 @@
       <c r="E25" s="3">
         <v>1000</v>
       </c>
-      <c r="F25" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>14</v>
@@ -1034,19 +1010,21 @@
       <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>4.5999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>14</v>
@@ -1060,9 +1038,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28"/>
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>3.4</v>
+      </c>
       <c r="D28" s="8" t="s">
         <v>14</v>
       </c>
@@ -1075,9 +1058,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29"/>
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>1.4</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>14</v>
       </c>
@@ -1092,26 +1080,33 @@
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30"/>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="3">
         <v>1000</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>1.1000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>14</v>
@@ -1119,21 +1114,19 @@
       <c r="E31" s="3">
         <v>1000</v>
       </c>
-      <c r="F31" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>14</v>
@@ -1147,9 +1140,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33"/>
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1162,24 +1160,24 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" s="3">
         <v>1000</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3"/>
+      <c r="F34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1190,25 +1188,32 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>0.9</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36"/>
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>5.4</v>
+      </c>
       <c r="D36" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36" s="3">
         <v>1000</v>
@@ -1219,11 +1224,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37"/>
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>3.6</v>
+      </c>
       <c r="D37" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37" s="3">
         <v>1000</v>
@@ -1234,11 +1244,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38"/>
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>5.6</v>
+      </c>
       <c r="D38" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38" s="3">
         <v>1000</v>
@@ -1255,94 +1270,109 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39" s="3">
         <v>1000</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3">
         <v>1000</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42"/>
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
       <c r="D42" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42" s="3">
         <v>1000</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43"/>
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>1.5</v>
+      </c>
       <c r="D43" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44"/>
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>1.9</v>
+      </c>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3">
         <v>1000</v>
@@ -1359,17 +1389,15 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="6"/>
     </row>
@@ -1381,45 +1409,41 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
-        <v>1.4</v>
-      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -1428,24 +1452,27 @@
         <v>1.2</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49"/>
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
       <c r="D49" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -1453,35 +1480,40 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
+      <c r="XFD49" s="6"/>
     </row>
     <row r="50" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50"/>
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>5.9</v>
+      </c>
       <c r="D50" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50" s="3">
         <v>1000</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
-      <c r="XFD50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E51" s="3">
         <v>1000</v>
@@ -1498,109 +1530,118 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
       <c r="C53">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53" s="3">
         <v>1000</v>
       </c>
       <c r="F53" s="3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54"/>
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>1.6</v>
+      </c>
       <c r="D54" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55" s="3">
         <v>1000</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56" s="3">
         <v>1000</v>
       </c>
       <c r="F56" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57">
-        <v>3.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
@@ -1611,31 +1652,38 @@
     </row>
     <row r="58" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59"/>
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>7.1</v>
+      </c>
       <c r="D59" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -1646,16 +1694,16 @@
     </row>
     <row r="60" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
@@ -1666,33 +1714,36 @@
     </row>
     <row r="61" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61">
-        <v>1.1000000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62"/>
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>3.5</v>
+      </c>
       <c r="D62" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -1703,31 +1754,38 @@
     </row>
     <row r="63" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63"/>
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>0.9</v>
+      </c>
       <c r="D63" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E63" s="3">
         <v>1000</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E64" s="3">
         <v>1000</v>
@@ -1738,33 +1796,36 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
       <c r="C65">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E65" s="3">
         <v>1000</v>
       </c>
-      <c r="F65" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66"/>
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>1.8</v>
+      </c>
       <c r="D66" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -1775,33 +1836,36 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
       </c>
       <c r="C67">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E67" s="3">
         <v>1000</v>
       </c>
-      <c r="F67" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68"/>
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="D68" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E68" s="3">
         <v>1000</v>
@@ -1809,14 +1873,20 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69"/>
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
       <c r="D69" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E69" s="3">
         <v>1000</v>
@@ -1824,79 +1894,79 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E70" s="3">
         <v>1000</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E71" s="3">
         <v>1000</v>
       </c>
-      <c r="F71" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E72" s="3">
         <v>1000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73"/>
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>2.8</v>
+      </c>
       <c r="D73" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E73" s="3">
         <v>1000</v>
@@ -1907,16 +1977,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E74" s="3">
         <v>1000</v>
@@ -1927,11 +1997,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75"/>
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>3.4</v>
+      </c>
       <c r="D75" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E75" s="3">
         <v>1000</v>
@@ -1942,11 +2017,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76"/>
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>2.1</v>
+      </c>
       <c r="D76" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
@@ -1957,152 +2037,165 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77"/>
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="D77" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E77" s="3">
         <v>1000</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
       </c>
       <c r="C78">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E78" s="3">
         <v>1000</v>
       </c>
-      <c r="F78" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="4"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
       </c>
       <c r="C79">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E79" s="3">
         <v>1000</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>1.2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C80"/>
       <c r="D80" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80" s="3">
         <v>1000</v>
       </c>
-      <c r="F80" s="3">
-        <v>1.2</v>
-      </c>
+      <c r="F80" s="3"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81"/>
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D81" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82"/>
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>1.5</v>
+      </c>
       <c r="D82" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82" s="3">
         <v>1000</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83">
-        <v>2.7</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C83"/>
       <c r="D83" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
       </c>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84"/>
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>1.3</v>
+      </c>
       <c r="D84" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" s="3">
         <v>1000</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="6"/>
+      <c r="F84" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G84" s="3"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85"/>
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>7.7</v>
+      </c>
       <c r="D85" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E85" s="3">
         <v>1000</v>
@@ -2113,38 +2206,36 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
       </c>
       <c r="C86">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3">
         <v>1000</v>
       </c>
-      <c r="F86" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
       </c>
       <c r="C87">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87" s="3">
         <v>1000</v>
@@ -2155,41 +2246,46 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C88"/>
       <c r="D88" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88" s="3">
         <v>1000</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89"/>
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>1.5</v>
+      </c>
       <c r="D89" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89" s="3">
         <v>1000</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C90"/>
       <c r="D90" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" s="3">
         <v>1000</v>
@@ -2200,80 +2296,63 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91">
-        <v>1.2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C91"/>
       <c r="D91" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" s="3">
         <v>1000</v>
       </c>
-      <c r="F91" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
       <c r="C92">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" s="3">
         <v>1000</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C93"/>
       <c r="D93" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" s="3">
         <v>1000</v>
       </c>
-      <c r="F93" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94">
-        <v>4.7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C94" s="10"/>
       <c r="D94" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" s="3">
         <v>1000</v>
@@ -2284,66 +2363,68 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1.8</v>
+      </c>
       <c r="D95" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95" s="3">
         <v>1000</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="10"/>
       <c r="D96" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" s="3">
         <v>1000</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="10">
-        <v>1.3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="10"/>
       <c r="D97" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" s="3">
         <v>1000</v>
       </c>
-      <c r="F97" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="10">
+        <v>1.7</v>
+      </c>
       <c r="D98" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3">
         <v>1000</v>
@@ -2354,115 +2435,128 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="10">
-        <v>2.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E99" s="3">
         <v>1000</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99">
+        <v>0.6</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="10">
+        <v>1</v>
+      </c>
       <c r="D100" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E100" s="3">
         <v>1000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.5</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>1.1000000000000001</v>
+      <c r="F101">
+        <v>0.5</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1.9</v>
+      </c>
       <c r="D102" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="F102" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="5">
-        <v>2.4</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B103" s="3"/>
       <c r="D103" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E103" s="3">
         <v>1000</v>
       </c>
+      <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B104" s="3"/>
       <c r="D104" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E104" s="3">
         <v>1000</v>
       </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B105" s="3"/>
       <c r="D105" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E105" s="3">
         <v>1000</v>
@@ -2473,115 +2567,129 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B106" s="3"/>
       <c r="D106" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E106" s="3">
         <v>1000</v>
       </c>
       <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B107" s="3"/>
       <c r="D107" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E107" s="3">
         <v>1000</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="6"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B108" s="3"/>
       <c r="D108" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E108" s="3">
         <v>1000</v>
       </c>
       <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B109" s="3"/>
       <c r="D109" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E109" s="3">
         <v>1000</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="5"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1</v>
+      </c>
       <c r="D110" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E110" s="3">
         <v>1000</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G110" s="3"/>
-      <c r="H110" s="6"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
       <c r="D111" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E111" s="3">
         <v>1000</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G111" s="3"/>
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B112" s="3"/>
       <c r="D112" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E112" s="3">
         <v>1000</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="4"/>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B113" s="3"/>
       <c r="D113" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E113" s="3">
         <v>1000</v>
@@ -2592,182 +2700,189 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B114" s="3"/>
       <c r="D114" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E114" s="3">
         <v>1000</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="6"/>
+      <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B115" s="3"/>
       <c r="D115" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E115" s="3">
         <v>1000</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="5">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B116" s="3"/>
       <c r="D116" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E116" s="3">
         <v>1000</v>
       </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="4"/>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B117" s="3"/>
       <c r="D117" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E117" s="3">
         <v>1000</v>
       </c>
-      <c r="H117" s="6"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B118" s="3"/>
       <c r="D118" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E118" s="3">
         <v>1000</v>
       </c>
-      <c r="H118" s="6"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B119" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1.2</v>
+      </c>
       <c r="D119" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E119" s="3">
         <v>1000</v>
       </c>
-      <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B120" s="3"/>
+      <c r="B120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="5">
+        <v>1</v>
+      </c>
       <c r="D120" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E120" s="3">
         <v>1000</v>
       </c>
-      <c r="H120" s="4"/>
+      <c r="F120">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D121" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E121" s="3">
         <v>1000</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B122" s="3"/>
       <c r="D122" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E122" s="3">
         <v>1000</v>
       </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="5">
-        <v>1.3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B123" s="3"/>
       <c r="D123" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E123" s="3">
         <v>1000</v>
       </c>
+      <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B124" s="3"/>
       <c r="D124" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E124" s="3">
         <v>1000</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B125" s="3"/>
       <c r="D125" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E125" s="3">
         <v>1000</v>
       </c>
-      <c r="H125" s="6"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B126" s="3"/>
       <c r="D126" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E126" s="3">
         <v>1000</v>
@@ -2776,24 +2891,29 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B127" s="3"/>
       <c r="D127" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E127" s="3">
         <v>1000</v>
       </c>
-      <c r="H127" s="9"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2</v>
+      </c>
       <c r="D128" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E128" s="3">
         <v>1000</v>
@@ -2802,24 +2922,29 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B129" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="5">
+        <v>1.2</v>
+      </c>
       <c r="D129" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E129" s="3">
         <v>1000</v>
       </c>
-      <c r="H129" s="4"/>
+      <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B130" s="3"/>
       <c r="D130" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E130" s="3">
         <v>1000</v>
@@ -2827,2301 +2952,1026 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="D131" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H131" s="6"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="3"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="D132" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="3"/>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="D133" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H133" s="4"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="3"/>
+      <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="3"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="3"/>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="3"/>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="D137" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="3"/>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="D138" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="3"/>
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="D139" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="3"/>
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="D140" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="3"/>
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="D141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="3"/>
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="D142" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="3"/>
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="3"/>
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H144" s="6"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="3"/>
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="D146" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="4"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="3"/>
+      <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="D147" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="3"/>
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="D148" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H148" s="6"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="3"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E149" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="3"/>
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="D150" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H150" s="4"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="3"/>
+      <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="D151" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="3"/>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="D152" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="3"/>
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="D153" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D153" s="8"/>
+      <c r="E153" s="3"/>
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="D154" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E154" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="3"/>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B155" s="3"/>
-      <c r="D155" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="3"/>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" s="3"/>
-      <c r="D156" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A156" s="3"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="3"/>
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H157" s="6"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="3"/>
+      <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="3"/>
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="D159" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H159" s="4"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="3"/>
+      <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="3"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="5">
-        <v>7.7</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E161" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="3"/>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="D162" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E162" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G162" s="3"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="3"/>
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="D163" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E163" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="3"/>
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="D164" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E164" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A164" s="3"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="3"/>
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="D165" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E165" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A165" s="3"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="3"/>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="3"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="3"/>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="D168" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A168" s="3"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="3"/>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B169" s="3"/>
-      <c r="D169" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A169" s="3"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="3"/>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E170" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A170" s="3"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="3"/>
       <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B171" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E171" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A171" s="3"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="3"/>
       <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E172" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H172" s="6"/>
+      <c r="A172" s="3"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="3"/>
+      <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A173" s="3"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="3"/>
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H174" s="3"/>
+      <c r="A174" s="3"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="3"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H175" s="6"/>
+      <c r="A175" s="3"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="3"/>
+      <c r="H175" s="3"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E176" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A176" s="3"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="3"/>
       <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E177" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F177">
-        <v>1.2</v>
-      </c>
-      <c r="H177" s="3"/>
+      <c r="A177" s="3"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="3"/>
+      <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E178" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A178" s="3"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="3"/>
       <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E179" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A179" s="3"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="3"/>
       <c r="H179" s="6"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H180" s="6"/>
+      <c r="A180" s="3"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="3"/>
+      <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E181" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H181" s="6"/>
+      <c r="A181" s="3"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E182" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F182">
-        <v>0.8</v>
-      </c>
-      <c r="H182" s="4"/>
+      <c r="A182" s="3"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="3"/>
+      <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E183" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A183" s="3"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="3"/>
+      <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E184" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A184" s="3"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="3"/>
       <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E185" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A185" s="3"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="3"/>
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E186" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H186" s="6"/>
+      <c r="A186" s="3"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E187" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H187" s="6"/>
+      <c r="A187" s="3"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="3"/>
+      <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E188" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A188" s="3"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="3"/>
+      <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E189" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H189" s="4"/>
+      <c r="A189" s="3"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="3"/>
+      <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E190" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H190" s="4"/>
+      <c r="A190" s="3"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="3"/>
+      <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E191" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A191" s="3"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="3"/>
       <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="5">
-        <v>3</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E192" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A192" s="3"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="3"/>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E193" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A193" s="3"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="3"/>
       <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E194" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A194" s="3"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="3"/>
       <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E195" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A195" s="3"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="3"/>
       <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E196" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A196" s="3"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="3"/>
       <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E197" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H197" s="6"/>
+      <c r="A197" s="3"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="3"/>
+      <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E198" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H198" s="6"/>
+      <c r="A198" s="3"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="3"/>
+      <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E199" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H199" s="4"/>
+      <c r="A199" s="3"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="3"/>
+      <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E200" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H200" s="4"/>
+      <c r="A200" s="3"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="3"/>
+      <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E201" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A201" s="3"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="3"/>
       <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E202" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A202" s="3"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="3"/>
       <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E203" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A203" s="3"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="3"/>
       <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E204" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A204" s="3"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="3"/>
       <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E205" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H205" s="6"/>
+      <c r="A205" s="3"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="3"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E206" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H206" s="6"/>
+      <c r="A206" s="3"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="3"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E207" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F207">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G207" s="6"/>
-      <c r="H207" s="4"/>
+      <c r="A207" s="3"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="3"/>
+      <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E208" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G208" s="6"/>
-      <c r="H208" s="4"/>
+      <c r="A208" s="3"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E209" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A209" s="3"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="3"/>
       <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E210" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A210" s="3"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="3"/>
+      <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E211" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A211" s="3"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="3"/>
       <c r="H211" s="6"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E212" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A212" s="3"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="3"/>
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E213" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A213" s="3"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="3"/>
       <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E214" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A214" s="3"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="3"/>
       <c r="H214" s="4"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A215" s="3"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="3"/>
       <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E216" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H216" s="4"/>
+      <c r="A216" s="3"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="3"/>
+      <c r="H216" s="6"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E217" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A217" s="3"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="3"/>
       <c r="H217" s="6"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A218" s="3"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="3"/>
       <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E219" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A219" s="3"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="3"/>
       <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E220" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A220" s="3"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="3"/>
       <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B221" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" s="5">
-        <v>7.7</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E221" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H221" s="6"/>
+      <c r="A221" s="3"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="3"/>
+      <c r="H221" s="4"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B222" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="5">
-        <v>3</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E222" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A222" s="3"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="3"/>
       <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E223" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H223" s="4"/>
+      <c r="A223" s="3"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="3"/>
+      <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E224" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H224" s="6"/>
+      <c r="A224" s="3"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E225" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H225" s="6"/>
+      <c r="A225" s="3"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E226" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A226" s="3"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="3"/>
     </row>
     <row r="227" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E227" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A227" s="3"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E228" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A228" s="3"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="3"/>
+      <c r="H228" s="6"/>
     </row>
     <row r="229" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E229" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A229" s="3"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E230" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A230" s="3"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="3"/>
       <c r="H230" s="6"/>
+      <c r="XFD230" s="6"/>
     </row>
     <row r="231" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E231" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A231" s="3"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="3"/>
+      <c r="H231" s="4"/>
     </row>
     <row r="232" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E232" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A232" s="3"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="3"/>
       <c r="H232" s="6"/>
-      <c r="XFD232" s="6"/>
     </row>
     <row r="233" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E233" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H233" s="4"/>
+      <c r="A233" s="3"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E234" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H234" s="6"/>
+      <c r="A234" s="3"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E235" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A235" s="3"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="3"/>
+      <c r="H235" s="4"/>
     </row>
     <row r="236" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E236" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A236" s="3"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E237" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H237" s="4"/>
+      <c r="A237" s="3"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E238" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A238" s="3"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E239" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A239" s="3"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="3"/>
+      <c r="H239" s="6"/>
     </row>
     <row r="240" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E240" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A240" s="3"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="3"/>
+      <c r="H240" s="6"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E241" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H241" s="6"/>
+      <c r="A241" s="3"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="3"/>
+      <c r="H241" s="4"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E242" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A242" s="3"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="3"/>
       <c r="H242" s="6"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E243" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H243" s="4"/>
+      <c r="A243" s="3"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E244" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H244" s="6"/>
+      <c r="A244" s="3"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E245" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A245" s="3"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="3"/>
+      <c r="H245" s="6"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B246" t="s">
-        <v>12</v>
-      </c>
-      <c r="C246" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E246" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F246">
-        <v>0.6</v>
-      </c>
+      <c r="A246" s="3"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B247" t="s">
-        <v>12</v>
-      </c>
-      <c r="C247" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E247" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H247" s="6"/>
+      <c r="A247" s="3"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A248" s="3"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="3"/>
+      <c r="H248" s="4"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B249" t="s">
-        <v>12</v>
-      </c>
-      <c r="C249" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E249" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A249" s="3"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E250" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H250" s="4"/>
+      <c r="A250" s="3"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E251" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A251" s="3"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B252" t="s">
-        <v>12</v>
-      </c>
-      <c r="C252" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E252" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A252" s="3"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="3"/>
+      <c r="H252" s="4"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D253" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E253" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A253" s="3"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E254" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H254" s="4"/>
+      <c r="A254" s="3"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E255" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A255" s="3"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="3"/>
+      <c r="H255" s="4"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E256" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A256" s="3"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="3"/>
+      <c r="H256" s="4"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E257" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H257" s="4"/>
+      <c r="A257" s="3"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="3"/>
+      <c r="H257" s="6"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E258" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H258" s="4"/>
+      <c r="A258" s="3"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B259" t="s">
-        <v>12</v>
-      </c>
-      <c r="C259" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E259" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H259" s="6"/>
+      <c r="A259" s="3"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="3"/>
+      <c r="H259" s="4"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B260" t="s">
-        <v>12</v>
-      </c>
-      <c r="C260" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="D260" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E260" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A260" s="3"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E261" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H261" s="4"/>
+      <c r="A261" s="3"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B262" t="s">
-        <v>12</v>
-      </c>
-      <c r="C262" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E262" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A262" s="3"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E263" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A263" s="3"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E264" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A264" s="3"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="3"/>
+      <c r="H264" s="6"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B265" t="s">
-        <v>12</v>
-      </c>
-      <c r="C265" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E265" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A265" s="3"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="3"/>
+      <c r="H265" s="6"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D266" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E266" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A266" s="3"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="3"/>
       <c r="H266" s="6"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E267" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A267" s="3"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="3"/>
       <c r="H267" s="6"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E268" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H268" s="6"/>
+      <c r="A268" s="3"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="3"/>
+      <c r="H268" s="3"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E269" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H269" s="6"/>
+      <c r="A269" s="3"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="3"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E270" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H270" s="3"/>
+      <c r="A270" s="3"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E271" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H271" s="4"/>
+      <c r="A271" s="3"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="3"/>
+      <c r="H271" s="3"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" t="s">
-        <v>12</v>
-      </c>
-      <c r="C272" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E272" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A272" s="3"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" t="s">
-        <v>12</v>
-      </c>
-      <c r="C273" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E273" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H273" s="3"/>
+      <c r="A273" s="3"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="3"/>
+      <c r="H273" s="4"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" t="s">
-        <v>12</v>
-      </c>
-      <c r="C274" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E274" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A274" s="3"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="3"/>
+      <c r="H274" s="4"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B275" t="s">
-        <v>12</v>
-      </c>
-      <c r="C275" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D275" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E275" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F275">
-        <v>0.8</v>
-      </c>
+      <c r="A275" s="3"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="3"/>
       <c r="H275" s="4"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D276" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E276" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H276" s="4"/>
+      <c r="A276" s="3"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E277" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H277" s="4"/>
+      <c r="A277" s="3"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="3"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E278" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A278" s="3"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D279" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E279" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A279" s="3"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="3"/>
+      <c r="H279" s="6"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B280" t="s">
-        <v>12</v>
-      </c>
-      <c r="C280" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E280" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A280" s="3"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D281" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E281" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H281" s="6"/>
+      <c r="A281" s="3"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D282" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E282" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A282" s="3"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="3"/>
+      <c r="H282" s="4"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E283" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A283" s="3"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="3"/>
+      <c r="H283" s="6"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B284" t="s">
-        <v>12</v>
-      </c>
-      <c r="C284" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="D284" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E284" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H284" s="4"/>
+      <c r="A284" s="3"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D285" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E285" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H285" s="6"/>
+      <c r="A285" s="3"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E286" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A286" s="3"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="3"/>
+      <c r="H286" s="4"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E287" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A287" s="3"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="3"/>
+      <c r="H287" s="6"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E288" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H288" s="4"/>
+      <c r="A288" s="3"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="3"/>
+      <c r="H288" s="6"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D289" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E289" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H289" s="6"/>
+      <c r="A289" s="3"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="3"/>
+      <c r="H289" s="4"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D290" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E290" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H290" s="6"/>
+      <c r="A290" s="3"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="3"/>
+      <c r="H290" s="4"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D291" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E291" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H291" s="4"/>
+      <c r="A291" s="4"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E292" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H292" s="4"/>
+      <c r="A292" s="4"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D293" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E293" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A293" s="4"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="3"/>
+      <c r="H293" s="6"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D294" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E294" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A294" s="4"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E295" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H295" s="6"/>
+      <c r="A295" s="4"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E296" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A296" s="4"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="3"/>
+      <c r="H296" s="6"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D297" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E297" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A297" s="4"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D298" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E298" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H298" s="6"/>
+      <c r="A298" s="4"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A299" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B299" t="s">
-        <v>12</v>
-      </c>
-      <c r="C299" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="D299" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E299" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A299" s="4"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="3"/>
+      <c r="H299" s="4"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D300" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E300" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A300" s="4"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="3"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E301" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H301" s="4"/>
+      <c r="A301" s="4"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="3"/>
+      <c r="H301" s="6"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
@@ -5132,7 +3982,6 @@
       <c r="A303" s="4"/>
       <c r="D303" s="8"/>
       <c r="E303" s="3"/>
-      <c r="H303" s="6"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
@@ -5178,6 +4027,7 @@
       <c r="A312" s="4"/>
       <c r="D312" s="8"/>
       <c r="E312" s="3"/>
+      <c r="H312" s="3"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
@@ -5188,7 +4038,6 @@
       <c r="A314" s="4"/>
       <c r="D314" s="8"/>
       <c r="E314" s="3"/>
-      <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
@@ -5229,6 +4078,7 @@
       <c r="A322" s="4"/>
       <c r="D322" s="8"/>
       <c r="E322" s="3"/>
+      <c r="H322" s="4"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
@@ -5239,7 +4089,7 @@
       <c r="A324" s="4"/>
       <c r="D324" s="8"/>
       <c r="E324" s="3"/>
-      <c r="H324" s="4"/>
+      <c r="G324" s="4"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
@@ -5330,6 +4180,7 @@
       <c r="A342" s="4"/>
       <c r="D342" s="8"/>
       <c r="E342" s="3"/>
+      <c r="H342" s="6"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
@@ -5340,7 +4191,6 @@
       <c r="A344" s="4"/>
       <c r="D344" s="8"/>
       <c r="E344" s="3"/>
-      <c r="H344" s="6"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
@@ -5551,6 +4401,7 @@
       <c r="A386" s="4"/>
       <c r="D386" s="8"/>
       <c r="E386" s="3"/>
+      <c r="H386" s="3"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
@@ -5561,7 +4412,6 @@
       <c r="A388" s="4"/>
       <c r="D388" s="8"/>
       <c r="E388" s="3"/>
-      <c r="H388" s="3"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
@@ -5587,6 +4437,7 @@
       <c r="A393" s="4"/>
       <c r="D393" s="8"/>
       <c r="E393" s="3"/>
+      <c r="H393" s="4"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
@@ -5597,12 +4448,12 @@
       <c r="A395" s="4"/>
       <c r="D395" s="8"/>
       <c r="E395" s="3"/>
-      <c r="H395" s="4"/>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="D396" s="8"/>
       <c r="E396" s="3"/>
+      <c r="H396" s="4"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
@@ -5613,7 +4464,6 @@
       <c r="A398" s="4"/>
       <c r="D398" s="8"/>
       <c r="E398" s="3"/>
-      <c r="H398" s="4"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
@@ -5624,6 +4474,7 @@
       <c r="A400" s="4"/>
       <c r="D400" s="8"/>
       <c r="E400" s="3"/>
+      <c r="H400" s="4"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
@@ -5634,7 +4485,6 @@
       <c r="A402" s="4"/>
       <c r="D402" s="8"/>
       <c r="E402" s="3"/>
-      <c r="H402" s="4"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
@@ -5670,6 +4520,7 @@
       <c r="A409" s="4"/>
       <c r="D409" s="8"/>
       <c r="E409" s="3"/>
+      <c r="H409" s="4"/>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
@@ -5680,7 +4531,6 @@
       <c r="A411" s="4"/>
       <c r="D411" s="8"/>
       <c r="E411" s="3"/>
-      <c r="H411" s="4"/>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
@@ -5716,6 +4566,7 @@
       <c r="A418" s="4"/>
       <c r="D418" s="8"/>
       <c r="E418" s="3"/>
+      <c r="H418" s="4"/>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
@@ -5726,7 +4577,6 @@
       <c r="A420" s="4"/>
       <c r="D420" s="8"/>
       <c r="E420" s="3"/>
-      <c r="H420" s="4"/>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
@@ -5752,6 +4602,7 @@
       <c r="A425" s="4"/>
       <c r="D425" s="8"/>
       <c r="E425" s="3"/>
+      <c r="H425" s="4"/>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
@@ -5762,7 +4613,6 @@
       <c r="A427" s="4"/>
       <c r="D427" s="8"/>
       <c r="E427" s="3"/>
-      <c r="H427" s="4"/>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
@@ -5813,28 +4663,29 @@
       <c r="A437" s="4"/>
       <c r="D437" s="8"/>
       <c r="E437" s="3"/>
+      <c r="H437" s="4"/>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="D438" s="8"/>
       <c r="E438" s="3"/>
+      <c r="H438" s="4"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="D439" s="8"/>
       <c r="E439" s="3"/>
-      <c r="H439" s="4"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="D440" s="8"/>
       <c r="E440" s="3"/>
-      <c r="H440" s="4"/>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="D441" s="8"/>
       <c r="E441" s="3"/>
+      <c r="H441" s="4"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
@@ -5845,7 +4696,6 @@
       <c r="A443" s="4"/>
       <c r="D443" s="8"/>
       <c r="E443" s="3"/>
-      <c r="H443" s="4"/>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
@@ -5886,6 +4736,7 @@
       <c r="A451" s="4"/>
       <c r="D451" s="8"/>
       <c r="E451" s="3"/>
+      <c r="F451" s="3"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
@@ -5896,7 +4747,6 @@
       <c r="A453" s="4"/>
       <c r="D453" s="8"/>
       <c r="E453" s="3"/>
-      <c r="F453" s="3"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
@@ -5957,6 +4807,7 @@
       <c r="A465" s="4"/>
       <c r="D465" s="8"/>
       <c r="E465" s="3"/>
+      <c r="H465" s="3"/>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
@@ -5967,7 +4818,6 @@
       <c r="A467" s="4"/>
       <c r="D467" s="8"/>
       <c r="E467" s="3"/>
-      <c r="H467" s="3"/>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
@@ -5993,6 +4843,7 @@
       <c r="A472" s="4"/>
       <c r="D472" s="8"/>
       <c r="E472" s="3"/>
+      <c r="H472" s="3"/>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
@@ -6003,7 +4854,6 @@
       <c r="A474" s="4"/>
       <c r="D474" s="8"/>
       <c r="E474" s="3"/>
-      <c r="H474" s="3"/>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
@@ -6064,6 +4914,7 @@
       <c r="A486" s="4"/>
       <c r="D486" s="8"/>
       <c r="E486" s="3"/>
+      <c r="H486" s="4"/>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
@@ -6074,7 +4925,6 @@
       <c r="A488" s="4"/>
       <c r="D488" s="8"/>
       <c r="E488" s="3"/>
-      <c r="H488" s="4"/>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
@@ -6250,6 +5100,7 @@
       <c r="A523" s="4"/>
       <c r="D523" s="8"/>
       <c r="E523" s="3"/>
+      <c r="H523" s="4"/>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
@@ -6260,7 +5111,6 @@
       <c r="A525" s="4"/>
       <c r="D525" s="8"/>
       <c r="E525" s="3"/>
-      <c r="H525" s="4"/>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
@@ -6321,6 +5171,7 @@
       <c r="A537" s="4"/>
       <c r="D537" s="8"/>
       <c r="E537" s="3"/>
+      <c r="H537" s="4"/>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
@@ -6331,7 +5182,6 @@
       <c r="A539" s="4"/>
       <c r="D539" s="8"/>
       <c r="E539" s="3"/>
-      <c r="H539" s="4"/>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
@@ -6722,32 +5572,32 @@
       <c r="A617" s="4"/>
       <c r="D617" s="8"/>
       <c r="E617" s="3"/>
+      <c r="H617" s="4"/>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="D618" s="8"/>
       <c r="E618" s="3"/>
+      <c r="H618" s="4"/>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="D619" s="8"/>
       <c r="E619" s="3"/>
-      <c r="H619" s="4"/>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="D620" s="8"/>
       <c r="E620" s="3"/>
-      <c r="H620" s="4"/>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
-      <c r="D621" s="8"/>
+      <c r="D621" s="3"/>
       <c r="E621" s="3"/>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
-      <c r="D622" s="8"/>
+      <c r="D622" s="3"/>
       <c r="E622" s="3"/>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.2">
@@ -9276,12 +8126,10 @@
       <c r="E1127" s="3"/>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1128" s="4"/>
       <c r="D1128" s="3"/>
       <c r="E1128" s="3"/>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1129" s="4"/>
       <c r="D1129" s="3"/>
       <c r="E1129" s="3"/>
     </row>
@@ -9331,17 +8179,9 @@
     </row>
     <row r="1141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1141" s="3"/>
-      <c r="E1141" s="3"/>
-    </row>
-    <row r="1142" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1142" s="3"/>
-      <c r="E1142" s="3"/>
-    </row>
-    <row r="1143" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1143" s="3"/>
-    </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1048576" s="6"/>
+    </row>
+    <row r="1048574" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1048574" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
+++ b/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2022-2025-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1437338-0F38-B743-80D4-499A3C290F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDB9C9-E55A-0149-A8EB-B8D2CFFF12B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="30">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -93,21 +93,6 @@
     <t>Keratella</t>
   </si>
   <si>
-    <t>Cal naup</t>
-  </si>
-  <si>
-    <t>1 mL</t>
-  </si>
-  <si>
-    <t>Ceriodaphnia</t>
-  </si>
-  <si>
-    <t>Conochiloides</t>
-  </si>
-  <si>
-    <t>B23Sep24_9m</t>
-  </si>
-  <si>
     <t>Daphnia</t>
   </si>
   <si>
@@ -117,16 +102,28 @@
     <t>Polyarthra</t>
   </si>
   <si>
-    <t>Calanoida</t>
-  </si>
-  <si>
     <t>B. longirostris</t>
   </si>
   <si>
-    <t>Hexarthra</t>
+    <t>Cal naup</t>
   </si>
   <si>
-    <t>Conochilus</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Chydoridae</t>
+  </si>
+  <si>
+    <t>Gastropus</t>
+  </si>
+  <si>
+    <t>F07Apr25_9m</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>Monostyla</t>
   </si>
 </sst>
 </file>
@@ -527,10 +524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676C963-F956-4A49-8829-4831A47E6094}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFD1048574"/>
+  <dimension ref="A1:XFD1048573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="6"/>
@@ -557,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45558</v>
+        <v>45754</v>
       </c>
       <c r="C2"/>
     </row>
@@ -566,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45451</v>
+        <v>45821</v>
       </c>
       <c r="C3"/>
     </row>
@@ -576,7 +573,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -610,13 +607,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
@@ -630,13 +627,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
@@ -645,20 +642,20 @@
         <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>14</v>
@@ -666,19 +663,21 @@
       <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
@@ -686,19 +685,21 @@
       <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>4.9000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -706,19 +707,21 @@
       <c r="E11" s="3">
         <v>1000</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
@@ -726,19 +729,21 @@
       <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>14</v>
@@ -746,19 +751,21 @@
       <c r="E13" s="3">
         <v>1000</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>14</v>
@@ -767,7 +774,7 @@
         <v>1000</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
@@ -780,7 +787,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>14</v>
@@ -788,19 +795,21 @@
       <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
@@ -820,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
@@ -828,19 +837,21 @@
       <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
@@ -848,19 +859,21 @@
       <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
@@ -868,19 +881,21 @@
       <c r="E19" s="3">
         <v>1000</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
@@ -888,19 +903,21 @@
       <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>14</v>
@@ -908,19 +925,21 @@
       <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
@@ -928,19 +947,21 @@
       <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>0.7</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
@@ -948,24 +969,22 @@
       <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
@@ -976,58 +995,60 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3">
         <v>1000</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="3">
         <v>1000</v>
       </c>
       <c r="F26" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3">
         <v>1000</v>
@@ -1038,16 +1059,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3">
         <v>1000</v>
@@ -1058,16 +1079,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3">
         <v>1000</v>
@@ -1084,32 +1105,30 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3">
         <v>1000</v>
       </c>
-      <c r="F30" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3">
         <v>1000</v>
@@ -1120,53 +1139,57 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>16</v>
@@ -1174,15 +1197,13 @@
       <c r="E34" s="3">
         <v>1000</v>
       </c>
-      <c r="F34" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1197,20 +1218,20 @@
         <v>1000</v>
       </c>
       <c r="F35" s="4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>16</v>
@@ -1222,15 +1243,15 @@
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37">
-        <v>3.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>16</v>
@@ -1238,19 +1259,21 @@
       <c r="E37" s="3">
         <v>1000</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4">
+        <v>0.7</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>16</v>
@@ -1259,18 +1282,18 @@
         <v>1000</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>16</v>
@@ -1278,19 +1301,21 @@
       <c r="E39" s="3">
         <v>1000</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4">
+        <v>0.6</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>16</v>
@@ -1298,19 +1323,19 @@
       <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>16</v>
@@ -1318,19 +1343,20 @@
       <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>16</v>
@@ -1338,19 +1364,17 @@
       <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>1.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C43"/>
       <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
@@ -1361,15 +1385,15 @@
       <c r="G43" s="3"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
@@ -1377,20 +1401,17 @@
       <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C45"/>
       <c r="D45" s="8" t="s">
         <v>16</v>
       </c>
@@ -1401,16 +1422,11 @@
       <c r="G45" s="3"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>1.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C46"/>
       <c r="D46" s="8" t="s">
         <v>16</v>
       </c>
@@ -1421,16 +1437,11 @@
       <c r="G46" s="3"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C47"/>
       <c r="D47" s="8" t="s">
         <v>16</v>
       </c>
@@ -1439,18 +1450,13 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>1.2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C48"/>
       <c r="D48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1460,8 +1466,9 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="XFD48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>16</v>
@@ -1479,19 +1486,13 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
-      <c r="XFD49" s="6"/>
-    </row>
-    <row r="50" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>5.9</v>
-      </c>
+      <c r="C50"/>
       <c r="D50" s="8" t="s">
         <v>16</v>
       </c>
@@ -1502,16 +1503,11 @@
       <c r="G50" s="3"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C51"/>
       <c r="D51" s="8" t="s">
         <v>16</v>
       </c>
@@ -1522,15 +1518,15 @@
       <c r="G51" s="3"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>16</v>
@@ -1538,21 +1534,19 @@
       <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>16</v>
@@ -1560,15 +1554,13 @@
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -1586,37 +1578,30 @@
       <c r="G54" s="3"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55">
-        <v>1.3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C55"/>
       <c r="D55" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="3">
         <v>1000</v>
       </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>16</v>
@@ -1624,21 +1609,19 @@
       <c r="E56" s="3">
         <v>1000</v>
       </c>
-      <c r="F56" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>16</v>
@@ -1650,60 +1633,55 @@
       <c r="G57" s="3"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C58"/>
       <c r="D58" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
@@ -1712,18 +1690,18 @@
       <c r="G60" s="3"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
@@ -1732,60 +1710,55 @@
       <c r="G61" s="3"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
       </c>
       <c r="C62">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E63" s="3">
         <v>1000</v>
       </c>
-      <c r="F63" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64">
-        <v>1.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C64"/>
       <c r="D64" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E64" s="3">
         <v>1000</v>
@@ -1796,16 +1769,11 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65">
-        <v>1.6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C65"/>
       <c r="D65" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3">
         <v>1000</v>
@@ -1816,16 +1784,11 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66">
-        <v>1.8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C66"/>
       <c r="D66" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -1836,16 +1799,11 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67">
-        <v>1.6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C67"/>
       <c r="D67" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E67" s="3">
         <v>1000</v>
@@ -1853,19 +1811,20 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68">
-        <v>5.0999999999999996</v>
+        <v>1.7</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E68" s="3">
         <v>1000</v>
@@ -1873,100 +1832,98 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E69" s="3">
         <v>1000</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E70" s="3">
         <v>1000</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E71" s="3">
         <v>1000</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E72" s="3">
         <v>1000</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <v>2.8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C73"/>
       <c r="D73" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E73" s="3">
         <v>1000</v>
@@ -1977,16 +1934,11 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74">
-        <v>2.1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C74"/>
       <c r="D74" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3">
         <v>1000</v>
@@ -1997,16 +1949,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
       </c>
       <c r="C75">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E75" s="3">
         <v>1000</v>
@@ -2017,126 +1969,124 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
       </c>
       <c r="C76">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
       </c>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G76" s="3"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E77" s="3">
         <v>1000</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
       </c>
       <c r="C78">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3">
         <v>1000</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="6"/>
+      <c r="F78" s="3">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79">
-        <v>1.6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C79"/>
       <c r="D79" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E79" s="3">
         <v>1000</v>
       </c>
       <c r="F79" s="3"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80"/>
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D80" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3">
         <v>1000</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="F80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C81"/>
       <c r="D81" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="4"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
-        <v>1.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C82"/>
       <c r="D82" s="8" t="s">
         <v>13</v>
       </c>
@@ -2144,8 +2094,8 @@
         <v>1000</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
@@ -2159,41 +2109,29 @@
         <v>1000</v>
       </c>
       <c r="F83" s="3"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84">
-        <v>1.3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C84"/>
       <c r="D84" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="3">
         <v>1000</v>
       </c>
-      <c r="F84" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85">
-        <v>7.7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C85"/>
       <c r="D85" s="8" t="s">
         <v>13</v>
       </c>
@@ -2206,14 +2144,9 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86">
-        <v>2.9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C86"/>
       <c r="D86" s="8" t="s">
         <v>13</v>
       </c>
@@ -2226,14 +2159,9 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87">
-        <v>1.7</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C87"/>
       <c r="D87" s="8" t="s">
         <v>13</v>
       </c>
@@ -2242,33 +2170,35 @@
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88"/>
+        <v>26</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>1.4</v>
+      </c>
       <c r="D88" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="3">
         <v>1000</v>
       </c>
-      <c r="F88" s="3"/>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
       <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89">
-        <v>1.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C89"/>
       <c r="D89" s="8" t="s">
         <v>13</v>
       </c>
@@ -2281,9 +2211,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90"/>
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>1.4</v>
+      </c>
       <c r="D90" s="8" t="s">
         <v>13</v>
       </c>
@@ -2296,9 +2231,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91"/>
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>1.4</v>
+      </c>
       <c r="D91" s="8" t="s">
         <v>13</v>
       </c>
@@ -2311,31 +2251,29 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C92"/>
       <c r="D92" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="3">
         <v>1000</v>
       </c>
-      <c r="F92" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93"/>
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="10">
+        <v>3.2</v>
+      </c>
       <c r="D93" s="8" t="s">
         <v>13</v>
       </c>
@@ -2348,9 +2286,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="10">
+        <v>3.5</v>
+      </c>
       <c r="D94" s="8" t="s">
         <v>13</v>
       </c>
@@ -2359,17 +2302,17 @@
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="10">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>13</v>
@@ -2377,15 +2320,16 @@
       <c r="E95" s="3">
         <v>1000</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="4"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="3"/>
+        <v>17</v>
+      </c>
       <c r="C96" s="10"/>
       <c r="D96" s="8" t="s">
         <v>13</v>
@@ -2401,7 +2345,6 @@
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="3"/>
       <c r="C97" s="10"/>
       <c r="D97" s="8" t="s">
         <v>13</v>
@@ -2417,53 +2360,40 @@
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="10">
-        <v>1.7</v>
-      </c>
+      <c r="C98" s="10"/>
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E98" s="3">
         <v>1000</v>
       </c>
-      <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="10">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C99" s="10"/>
       <c r="D99" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="3">
         <v>1000</v>
       </c>
-      <c r="F99">
-        <v>0.6</v>
-      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="10">
-        <v>1</v>
+      <c r="C100" s="5">
+        <v>1.4</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>13</v>
@@ -2471,21 +2401,18 @@
       <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0.5</v>
-      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="5">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>13</v>
@@ -2493,21 +2420,12 @@
       <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101">
-        <v>0.5</v>
-      </c>
-      <c r="G101" s="3"/>
+      <c r="F101" s="3"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="5">
-        <v>1.9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>13</v>
@@ -2515,16 +2433,20 @@
       <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.9</v>
+      </c>
       <c r="D103" s="8" t="s">
         <v>13</v>
       </c>
@@ -2539,7 +2461,6 @@
       <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B104" s="3"/>
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
@@ -2552,55 +2473,51 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="3"/>
+        <v>18</v>
+      </c>
       <c r="D105" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E105" s="3">
         <v>1000</v>
       </c>
       <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="3"/>
       <c r="D106" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E106" s="3">
         <v>1000</v>
       </c>
       <c r="F106" s="3"/>
-      <c r="H106" s="6"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="3"/>
+        <v>18</v>
+      </c>
       <c r="D107" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E107" s="3">
         <v>1000</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="5"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="3"/>
+        <v>21</v>
+      </c>
       <c r="D108" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E108" s="3">
         <v>1000</v>
@@ -2611,60 +2528,43 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="3"/>
+        <v>18</v>
+      </c>
       <c r="D109" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E109" s="3">
         <v>1000</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="6"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E110" s="3">
         <v>1000</v>
       </c>
-      <c r="F110" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+      <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E111" s="3">
         <v>1000</v>
       </c>
-      <c r="F111" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="6"/>
     </row>
@@ -2672,9 +2572,8 @@
       <c r="A112" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="3"/>
       <c r="D112" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E112" s="3">
         <v>1000</v>
@@ -2685,41 +2584,36 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" s="3"/>
+        <v>18</v>
+      </c>
       <c r="D113" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E113" s="3">
         <v>1000</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="6"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" s="3"/>
+        <v>20</v>
+      </c>
       <c r="D114" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E114" s="3">
         <v>1000</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="4"/>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="3"/>
+        <v>21</v>
+      </c>
       <c r="D115" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E115" s="3">
         <v>1000</v>
@@ -2728,24 +2622,22 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>18</v>
+      </c>
       <c r="D116" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E116" s="3">
         <v>1000</v>
       </c>
-      <c r="H116" s="6"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="3"/>
+        <v>20</v>
+      </c>
       <c r="D117" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E117" s="3">
         <v>1000</v>
@@ -2754,29 +2646,27 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="3"/>
+        <v>20</v>
+      </c>
       <c r="D118" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E118" s="3">
         <v>1000</v>
       </c>
-      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="5">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E119" s="3">
         <v>1000</v>
@@ -2784,66 +2674,47 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E120" s="3">
         <v>1000</v>
-      </c>
-      <c r="F120">
-        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="5">
-        <v>1.1000000000000001</v>
+        <v>18</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E121" s="3">
         <v>1000</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="3"/>
+        <v>18</v>
+      </c>
       <c r="D122" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E122" s="3">
         <v>1000</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="3"/>
+        <v>20</v>
+      </c>
       <c r="D123" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E123" s="3">
         <v>1000</v>
@@ -2852,68 +2723,58 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="3"/>
+        <v>17</v>
+      </c>
       <c r="D124" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E124" s="3">
         <v>1000</v>
       </c>
-      <c r="H124" s="6"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B125" s="3"/>
       <c r="D125" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E125" s="3">
         <v>1000</v>
       </c>
-      <c r="H125" s="9"/>
+      <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="3"/>
+        <v>20</v>
+      </c>
       <c r="D126" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E126" s="3">
         <v>1000</v>
       </c>
-      <c r="H126" s="6"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="3"/>
+        <v>18</v>
+      </c>
       <c r="D127" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E127" s="3">
         <v>1000</v>
       </c>
-      <c r="H127" s="4"/>
+      <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E128" s="3">
         <v>1000</v>
@@ -2924,14 +2785,9 @@
       <c r="A129" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="5">
-        <v>1.2</v>
-      </c>
+      <c r="B129" s="3"/>
       <c r="D129" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E129" s="3">
         <v>1000</v>
@@ -2940,129 +2796,235 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B130" s="3"/>
       <c r="D130" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E130" s="3">
         <v>1000</v>
       </c>
-      <c r="H130" s="6"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
+      <c r="A131" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B131" s="3"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="3"/>
-      <c r="H131" s="4"/>
+      <c r="D131" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
+      <c r="A132" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B132" s="3"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="3"/>
+      <c r="D132" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1000</v>
+      </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
+      <c r="A133" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B133" s="3"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="3"/>
+      <c r="D133" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1000</v>
+      </c>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
+      <c r="A134" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B134" s="3"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="3"/>
+      <c r="D134" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1000</v>
+      </c>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
+      <c r="A135" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B135" s="3"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="3"/>
+      <c r="D135" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1000</v>
+      </c>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
+      <c r="A136" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B136" s="3"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="3"/>
+      <c r="D136" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1000</v>
+      </c>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B137" s="3"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="3"/>
+      <c r="D137" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1000</v>
+      </c>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B138" s="3"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="3"/>
+      <c r="D138" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1000</v>
+      </c>
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
+      <c r="A139" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B139" s="3"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="3"/>
+      <c r="D139" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1000</v>
+      </c>
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="3"/>
+      <c r="A140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1000</v>
+      </c>
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
+      <c r="A141" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B141" s="3"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="3"/>
+      <c r="D141" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1000</v>
+      </c>
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1000</v>
+      </c>
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B143" s="3"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="3"/>
-      <c r="H143" s="6"/>
+      <c r="D143" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B144" s="3"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="4"/>
+      <c r="D144" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
+      <c r="A145" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B145" s="3"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="3"/>
+      <c r="D145" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1000</v>
+      </c>
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
+      <c r="A146" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B146" s="3"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="3"/>
+      <c r="D146" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1000</v>
+      </c>
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -3070,14 +3032,14 @@
       <c r="B147" s="3"/>
       <c r="D147" s="8"/>
       <c r="E147" s="3"/>
-      <c r="H147" s="6"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="D148" s="8"/>
       <c r="E148" s="3"/>
-      <c r="H148" s="4"/>
+      <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
@@ -3129,16 +3091,17 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
       <c r="D156" s="8"/>
       <c r="E156" s="3"/>
-      <c r="H156" s="6"/>
+      <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="D157" s="8"/>
       <c r="E157" s="3"/>
-      <c r="H157" s="4"/>
+      <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
@@ -3152,6 +3115,7 @@
       <c r="B159" s="3"/>
       <c r="D159" s="8"/>
       <c r="E159" s="3"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -3159,7 +3123,6 @@
       <c r="B160" s="3"/>
       <c r="D160" s="8"/>
       <c r="E160" s="3"/>
-      <c r="G160" s="3"/>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -3178,7 +3141,6 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
       <c r="D163" s="8"/>
       <c r="E163" s="3"/>
       <c r="H163" s="6"/>
@@ -3191,6 +3153,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="D165" s="8"/>
       <c r="E165" s="3"/>
       <c r="H165" s="6"/>
@@ -3204,7 +3167,6 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
       <c r="D167" s="8"/>
       <c r="E167" s="3"/>
       <c r="H167" s="6"/>
@@ -3231,13 +3193,13 @@
       <c r="A171" s="3"/>
       <c r="D171" s="8"/>
       <c r="E171" s="3"/>
-      <c r="H171" s="6"/>
+      <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="D172" s="8"/>
       <c r="E172" s="3"/>
-      <c r="H172" s="3"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
@@ -3249,13 +3211,13 @@
       <c r="A174" s="3"/>
       <c r="D174" s="8"/>
       <c r="E174" s="3"/>
-      <c r="H174" s="6"/>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="D175" s="8"/>
       <c r="E175" s="3"/>
-      <c r="H175" s="3"/>
+      <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
@@ -3279,18 +3241,18 @@
       <c r="A179" s="3"/>
       <c r="D179" s="8"/>
       <c r="E179" s="3"/>
-      <c r="H179" s="6"/>
+      <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="D180" s="8"/>
       <c r="E180" s="3"/>
-      <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="D181" s="8"/>
       <c r="E181" s="3"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
@@ -3314,12 +3276,12 @@
       <c r="A185" s="3"/>
       <c r="D185" s="8"/>
       <c r="E185" s="3"/>
-      <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="D186" s="8"/>
       <c r="E186" s="3"/>
+      <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
@@ -3331,7 +3293,7 @@
       <c r="A188" s="3"/>
       <c r="D188" s="8"/>
       <c r="E188" s="3"/>
-      <c r="H188" s="4"/>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
@@ -3379,7 +3341,7 @@
       <c r="A196" s="3"/>
       <c r="D196" s="8"/>
       <c r="E196" s="3"/>
-      <c r="H196" s="6"/>
+      <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
@@ -3391,7 +3353,7 @@
       <c r="A198" s="3"/>
       <c r="D198" s="8"/>
       <c r="E198" s="3"/>
-      <c r="H198" s="4"/>
+      <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
@@ -3427,7 +3389,8 @@
       <c r="A204" s="3"/>
       <c r="D204" s="8"/>
       <c r="E204" s="3"/>
-      <c r="H204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
@@ -3440,55 +3403,54 @@
       <c r="A206" s="3"/>
       <c r="D206" s="8"/>
       <c r="E206" s="3"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="4"/>
+      <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="D207" s="8"/>
       <c r="E207" s="3"/>
-      <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="D208" s="8"/>
       <c r="E208" s="3"/>
+      <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="D209" s="8"/>
       <c r="E209" s="3"/>
-      <c r="H209" s="6"/>
+      <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="D210" s="8"/>
       <c r="E210" s="3"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="D211" s="8"/>
       <c r="E211" s="3"/>
-      <c r="H211" s="6"/>
+      <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="D212" s="8"/>
       <c r="E212" s="3"/>
-      <c r="H212" s="4"/>
+      <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="D213" s="8"/>
       <c r="E213" s="3"/>
-      <c r="H213" s="6"/>
+      <c r="H213" s="4"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="D214" s="8"/>
       <c r="E214" s="3"/>
-      <c r="H214" s="4"/>
+      <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
@@ -3524,13 +3486,13 @@
       <c r="A220" s="3"/>
       <c r="D220" s="8"/>
       <c r="E220" s="3"/>
-      <c r="H220" s="6"/>
+      <c r="H220" s="4"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="D221" s="8"/>
       <c r="E221" s="3"/>
-      <c r="H221" s="4"/>
+      <c r="H221" s="6"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
@@ -3542,7 +3504,6 @@
       <c r="A223" s="3"/>
       <c r="D223" s="8"/>
       <c r="E223" s="3"/>
-      <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
@@ -3563,36 +3524,36 @@
       <c r="A227" s="3"/>
       <c r="D227" s="8"/>
       <c r="E227" s="3"/>
+      <c r="H227" s="6"/>
     </row>
     <row r="228" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="D228" s="8"/>
       <c r="E228" s="3"/>
-      <c r="H228" s="6"/>
     </row>
     <row r="229" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="D229" s="8"/>
       <c r="E229" s="3"/>
+      <c r="H229" s="6"/>
+      <c r="XFD229" s="6"/>
     </row>
     <row r="230" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="D230" s="8"/>
       <c r="E230" s="3"/>
-      <c r="H230" s="6"/>
-      <c r="XFD230" s="6"/>
+      <c r="H230" s="4"/>
     </row>
     <row r="231" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="D231" s="8"/>
       <c r="E231" s="3"/>
-      <c r="H231" s="4"/>
+      <c r="H231" s="6"/>
     </row>
     <row r="232" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="D232" s="8"/>
       <c r="E232" s="3"/>
-      <c r="H232" s="6"/>
     </row>
     <row r="233" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
@@ -3603,12 +3564,12 @@
       <c r="A234" s="3"/>
       <c r="D234" s="8"/>
       <c r="E234" s="3"/>
+      <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="D235" s="8"/>
       <c r="E235" s="3"/>
-      <c r="H235" s="4"/>
     </row>
     <row r="236" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
@@ -3624,6 +3585,7 @@
       <c r="A238" s="3"/>
       <c r="D238" s="8"/>
       <c r="E238" s="3"/>
+      <c r="H238" s="6"/>
     </row>
     <row r="239" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
@@ -3635,19 +3597,18 @@
       <c r="A240" s="3"/>
       <c r="D240" s="8"/>
       <c r="E240" s="3"/>
-      <c r="H240" s="6"/>
+      <c r="H240" s="4"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="D241" s="8"/>
       <c r="E241" s="3"/>
-      <c r="H241" s="4"/>
+      <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="D242" s="8"/>
       <c r="E242" s="3"/>
-      <c r="H242" s="6"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
@@ -3658,12 +3619,12 @@
       <c r="A244" s="3"/>
       <c r="D244" s="8"/>
       <c r="E244" s="3"/>
+      <c r="H244" s="6"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="D245" s="8"/>
       <c r="E245" s="3"/>
-      <c r="H245" s="6"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
@@ -3674,12 +3635,12 @@
       <c r="A247" s="3"/>
       <c r="D247" s="8"/>
       <c r="E247" s="3"/>
+      <c r="H247" s="4"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="D248" s="8"/>
       <c r="E248" s="3"/>
-      <c r="H248" s="4"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
@@ -3695,12 +3656,12 @@
       <c r="A251" s="3"/>
       <c r="D251" s="8"/>
       <c r="E251" s="3"/>
+      <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="D252" s="8"/>
       <c r="E252" s="3"/>
-      <c r="H252" s="4"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
@@ -3711,6 +3672,7 @@
       <c r="A254" s="3"/>
       <c r="D254" s="8"/>
       <c r="E254" s="3"/>
+      <c r="H254" s="4"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
@@ -3722,24 +3684,23 @@
       <c r="A256" s="3"/>
       <c r="D256" s="8"/>
       <c r="E256" s="3"/>
-      <c r="H256" s="4"/>
+      <c r="H256" s="6"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="D257" s="8"/>
       <c r="E257" s="3"/>
-      <c r="H257" s="6"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="D258" s="8"/>
       <c r="E258" s="3"/>
+      <c r="H258" s="4"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="D259" s="8"/>
       <c r="E259" s="3"/>
-      <c r="H259" s="4"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
@@ -3760,6 +3721,7 @@
       <c r="A263" s="3"/>
       <c r="D263" s="8"/>
       <c r="E263" s="3"/>
+      <c r="H263" s="6"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
@@ -3783,35 +3745,35 @@
       <c r="A267" s="3"/>
       <c r="D267" s="8"/>
       <c r="E267" s="3"/>
-      <c r="H267" s="6"/>
+      <c r="H267" s="3"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="D268" s="8"/>
       <c r="E268" s="3"/>
-      <c r="H268" s="3"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="D269" s="8"/>
       <c r="E269" s="3"/>
-      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="D270" s="8"/>
       <c r="E270" s="3"/>
+      <c r="H270" s="3"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="D271" s="8"/>
       <c r="E271" s="3"/>
-      <c r="H271" s="3"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="D272" s="8"/>
       <c r="E272" s="3"/>
+      <c r="H272" s="4"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
@@ -3829,7 +3791,6 @@
       <c r="A275" s="3"/>
       <c r="D275" s="8"/>
       <c r="E275" s="3"/>
-      <c r="H275" s="4"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
@@ -3845,12 +3806,12 @@
       <c r="A278" s="3"/>
       <c r="D278" s="8"/>
       <c r="E278" s="3"/>
+      <c r="H278" s="6"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="D279" s="8"/>
       <c r="E279" s="3"/>
-      <c r="H279" s="6"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
@@ -3861,18 +3822,18 @@
       <c r="A281" s="3"/>
       <c r="D281" s="8"/>
       <c r="E281" s="3"/>
+      <c r="H281" s="4"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="D282" s="8"/>
       <c r="E282" s="3"/>
-      <c r="H282" s="4"/>
+      <c r="H282" s="6"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="D283" s="8"/>
       <c r="E283" s="3"/>
-      <c r="H283" s="6"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
@@ -3883,12 +3844,13 @@
       <c r="A285" s="3"/>
       <c r="D285" s="8"/>
       <c r="E285" s="3"/>
+      <c r="H285" s="4"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="D286" s="8"/>
       <c r="E286" s="3"/>
-      <c r="H286" s="4"/>
+      <c r="H286" s="6"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
@@ -3900,7 +3862,7 @@
       <c r="A288" s="3"/>
       <c r="D288" s="8"/>
       <c r="E288" s="3"/>
-      <c r="H288" s="6"/>
+      <c r="H288" s="4"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
@@ -3909,10 +3871,9 @@
       <c r="H289" s="4"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="3"/>
+      <c r="A290" s="4"/>
       <c r="D290" s="8"/>
       <c r="E290" s="3"/>
-      <c r="H290" s="4"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
@@ -3923,12 +3884,12 @@
       <c r="A292" s="4"/>
       <c r="D292" s="8"/>
       <c r="E292" s="3"/>
+      <c r="H292" s="6"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="D293" s="8"/>
       <c r="E293" s="3"/>
-      <c r="H293" s="6"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
@@ -3939,12 +3900,12 @@
       <c r="A295" s="4"/>
       <c r="D295" s="8"/>
       <c r="E295" s="3"/>
+      <c r="H295" s="6"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="D296" s="8"/>
       <c r="E296" s="3"/>
-      <c r="H296" s="6"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
@@ -3955,23 +3916,23 @@
       <c r="A298" s="4"/>
       <c r="D298" s="8"/>
       <c r="E298" s="3"/>
+      <c r="H298" s="4"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="D299" s="8"/>
       <c r="E299" s="3"/>
-      <c r="H299" s="4"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="D300" s="8"/>
       <c r="E300" s="3"/>
+      <c r="H300" s="6"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="D301" s="8"/>
       <c r="E301" s="3"/>
-      <c r="H301" s="6"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
@@ -4022,12 +3983,12 @@
       <c r="A311" s="4"/>
       <c r="D311" s="8"/>
       <c r="E311" s="3"/>
+      <c r="H311" s="3"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="D312" s="8"/>
       <c r="E312" s="3"/>
-      <c r="H312" s="3"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
@@ -4073,23 +4034,23 @@
       <c r="A321" s="4"/>
       <c r="D321" s="8"/>
       <c r="E321" s="3"/>
+      <c r="H321" s="4"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="D322" s="8"/>
       <c r="E322" s="3"/>
-      <c r="H322" s="4"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="D323" s="8"/>
       <c r="E323" s="3"/>
+      <c r="G323" s="4"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="D324" s="8"/>
       <c r="E324" s="3"/>
-      <c r="G324" s="4"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
@@ -4175,12 +4136,12 @@
       <c r="A341" s="4"/>
       <c r="D341" s="8"/>
       <c r="E341" s="3"/>
+      <c r="H341" s="6"/>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="D342" s="8"/>
       <c r="E342" s="3"/>
-      <c r="H342" s="6"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
@@ -4396,12 +4357,12 @@
       <c r="A385" s="4"/>
       <c r="D385" s="8"/>
       <c r="E385" s="3"/>
+      <c r="H385" s="3"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="D386" s="8"/>
       <c r="E386" s="3"/>
-      <c r="H386" s="3"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
@@ -4432,12 +4393,12 @@
       <c r="A392" s="4"/>
       <c r="D392" s="8"/>
       <c r="E392" s="3"/>
+      <c r="H392" s="4"/>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="D393" s="8"/>
       <c r="E393" s="3"/>
-      <c r="H393" s="4"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
@@ -4448,12 +4409,12 @@
       <c r="A395" s="4"/>
       <c r="D395" s="8"/>
       <c r="E395" s="3"/>
+      <c r="H395" s="4"/>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="D396" s="8"/>
       <c r="E396" s="3"/>
-      <c r="H396" s="4"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
@@ -4469,12 +4430,12 @@
       <c r="A399" s="4"/>
       <c r="D399" s="8"/>
       <c r="E399" s="3"/>
+      <c r="H399" s="4"/>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="D400" s="8"/>
       <c r="E400" s="3"/>
-      <c r="H400" s="4"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
@@ -4515,12 +4476,12 @@
       <c r="A408" s="4"/>
       <c r="D408" s="8"/>
       <c r="E408" s="3"/>
+      <c r="H408" s="4"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="D409" s="8"/>
       <c r="E409" s="3"/>
-      <c r="H409" s="4"/>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
@@ -4561,12 +4522,12 @@
       <c r="A417" s="4"/>
       <c r="D417" s="8"/>
       <c r="E417" s="3"/>
+      <c r="H417" s="4"/>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="D418" s="8"/>
       <c r="E418" s="3"/>
-      <c r="H418" s="4"/>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
@@ -4597,12 +4558,12 @@
       <c r="A424" s="4"/>
       <c r="D424" s="8"/>
       <c r="E424" s="3"/>
+      <c r="H424" s="4"/>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="D425" s="8"/>
       <c r="E425" s="3"/>
-      <c r="H425" s="4"/>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
@@ -4658,6 +4619,7 @@
       <c r="A436" s="4"/>
       <c r="D436" s="8"/>
       <c r="E436" s="3"/>
+      <c r="H436" s="4"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
@@ -4669,7 +4631,6 @@
       <c r="A438" s="4"/>
       <c r="D438" s="8"/>
       <c r="E438" s="3"/>
-      <c r="H438" s="4"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
@@ -4680,12 +4641,12 @@
       <c r="A440" s="4"/>
       <c r="D440" s="8"/>
       <c r="E440" s="3"/>
+      <c r="H440" s="4"/>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="D441" s="8"/>
       <c r="E441" s="3"/>
-      <c r="H441" s="4"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
@@ -4722,92 +4683,92 @@
       <c r="D448" s="8"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="D449" s="8"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="D450" s="8"/>
       <c r="E450" s="3"/>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F450" s="3"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="D451" s="8"/>
       <c r="E451" s="3"/>
-      <c r="F451" s="3"/>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="D452" s="8"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="D453" s="8"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="D454" s="8"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="D455" s="8"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="D456" s="8"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="D457" s="8"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="D458" s="8"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="D459" s="8"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="D460" s="8"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="D461" s="8"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="D462" s="8"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="D463" s="8"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="D464" s="8"/>
       <c r="E464" s="3"/>
+      <c r="H464" s="3"/>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="D465" s="8"/>
       <c r="E465" s="3"/>
-      <c r="H465" s="3"/>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
@@ -4838,12 +4799,12 @@
       <c r="A471" s="4"/>
       <c r="D471" s="8"/>
       <c r="E471" s="3"/>
+      <c r="H471" s="3"/>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="D472" s="8"/>
       <c r="E472" s="3"/>
-      <c r="H472" s="3"/>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
@@ -4909,12 +4870,12 @@
       <c r="A485" s="4"/>
       <c r="D485" s="8"/>
       <c r="E485" s="3"/>
+      <c r="H485" s="4"/>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="D486" s="8"/>
       <c r="E486" s="3"/>
-      <c r="H486" s="4"/>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
@@ -5095,12 +5056,12 @@
       <c r="A522" s="4"/>
       <c r="D522" s="8"/>
       <c r="E522" s="3"/>
+      <c r="H522" s="4"/>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="D523" s="8"/>
       <c r="E523" s="3"/>
-      <c r="H523" s="4"/>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
@@ -5166,12 +5127,12 @@
       <c r="A536" s="4"/>
       <c r="D536" s="8"/>
       <c r="E536" s="3"/>
+      <c r="H536" s="4"/>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="D537" s="8"/>
       <c r="E537" s="3"/>
-      <c r="H537" s="4"/>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
@@ -5567,6 +5528,7 @@
       <c r="A616" s="4"/>
       <c r="D616" s="8"/>
       <c r="E616" s="3"/>
+      <c r="H616" s="4"/>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
@@ -5578,7 +5540,6 @@
       <c r="A618" s="4"/>
       <c r="D618" s="8"/>
       <c r="E618" s="3"/>
-      <c r="H618" s="4"/>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
@@ -5587,7 +5548,7 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
-      <c r="D620" s="8"/>
+      <c r="D620" s="3"/>
       <c r="E620" s="3"/>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.2">
@@ -8121,7 +8082,6 @@
       <c r="E1126" s="3"/>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1127" s="4"/>
       <c r="D1127" s="3"/>
       <c r="E1127" s="3"/>
     </row>
@@ -8175,13 +8135,9 @@
     </row>
     <row r="1140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1140" s="3"/>
-      <c r="E1140" s="3"/>
-    </row>
-    <row r="1141" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1141" s="3"/>
-    </row>
-    <row r="1048574" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1048574" s="6"/>
+    </row>
+    <row r="1048573" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1048573" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
+++ b/Summer2022-2025-DataAnalysis/RawData/Zoop_sample_counting_template_2022-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2022-2025-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDB9C9-E55A-0149-A8EB-B8D2CFFF12B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0E6A1-FA08-CF4A-9AE9-6424E22BD077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="29">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -93,37 +93,34 @@
     <t>Keratella</t>
   </si>
   <si>
-    <t>Daphnia</t>
-  </si>
-  <si>
-    <t>K. bostoniensis</t>
-  </si>
-  <si>
     <t>Polyarthra</t>
-  </si>
-  <si>
-    <t>B. longirostris</t>
   </si>
   <si>
     <t>Cal naup</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Chydoridae</t>
-  </si>
-  <si>
-    <t>Gastropus</t>
-  </si>
-  <si>
-    <t>F07Apr25_9m</t>
-  </si>
-  <si>
     <t>2 mL</t>
   </si>
   <si>
-    <t>Monostyla</t>
+    <t>Conochilus</t>
+  </si>
+  <si>
+    <t>Calanoida</t>
+  </si>
+  <si>
+    <t>Conochiloides</t>
+  </si>
+  <si>
+    <t>B30Jun25_7m</t>
+  </si>
+  <si>
+    <t>Ceriodaphnia</t>
+  </si>
+  <si>
+    <t>Polyarhtra</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
   <dimension ref="A1:XFD1048573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F7" sqref="F7:F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="6"/>
@@ -554,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45754</v>
+        <v>45838</v>
       </c>
       <c r="C2"/>
     </row>
@@ -563,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45821</v>
+        <v>45845</v>
       </c>
       <c r="C3"/>
     </row>
@@ -573,7 +570,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -607,13 +604,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
@@ -627,13 +624,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
@@ -642,175 +639,121 @@
         <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C9"/>
       <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C10"/>
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C11"/>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="3">
         <v>1000</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C12"/>
       <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C13"/>
       <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3">
         <v>1000</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C14"/>
       <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C15"/>
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>2.4</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C16"/>
       <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
@@ -823,101 +766,73 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C17"/>
       <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C18"/>
       <c r="D18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19"/>
       <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3">
         <v>1000</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>1.3</v>
-      </c>
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20"/>
       <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>14</v>
@@ -926,20 +841,20 @@
         <v>1000</v>
       </c>
       <c r="F21" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
@@ -948,20 +863,20 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
@@ -969,22 +884,24 @@
       <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
+      <c r="A24" t="s">
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
@@ -994,61 +911,59 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3">
         <v>1000</v>
       </c>
       <c r="F25" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
+      <c r="A26" t="s">
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>1.1000000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3">
         <v>1000</v>
@@ -1058,37 +973,39 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>23</v>
+      <c r="A28" t="s">
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3">
         <v>1000</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>0.6</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3">
         <v>1000</v>
@@ -1099,36 +1016,38 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3">
         <v>1000</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3">
         <v>1000</v>
@@ -1139,102 +1058,97 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33">
-        <v>1.1000000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3">
         <v>1000</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3">
         <v>1000</v>
       </c>
       <c r="F35" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>2.5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C36"/>
       <c r="D36" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3">
         <v>1000</v>
@@ -1245,38 +1159,26 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C37"/>
       <c r="D37" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3">
         <v>1000</v>
       </c>
-      <c r="F37" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>2.1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C38"/>
       <c r="D38" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3">
         <v>1000</v>
@@ -1287,38 +1189,26 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C39"/>
       <c r="D39" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3">
         <v>1000</v>
       </c>
-      <c r="F39" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>1.9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C40"/>
       <c r="D40" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" s="3">
         <v>1000</v>
@@ -1329,54 +1219,40 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C41"/>
       <c r="D41" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C42"/>
       <c r="D42" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0.8</v>
-      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C43"/>
       <c r="D43" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
@@ -1387,33 +1263,26 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C44"/>
       <c r="D44" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C45"/>
       <c r="D45" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3">
         <v>1000</v>
@@ -1424,11 +1293,11 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C46"/>
       <c r="D46" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
@@ -1439,11 +1308,11 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
@@ -1454,11 +1323,11 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -1470,16 +1339,11 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>1.2</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C49"/>
       <c r="D49" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -1490,11 +1354,11 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50"/>
       <c r="D50" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50" s="3">
         <v>1000</v>
@@ -1505,11 +1369,11 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" s="3">
         <v>1000</v>
@@ -1520,16 +1384,11 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52">
-        <v>1.5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C52"/>
       <c r="D52" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
@@ -1540,36 +1399,38 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
       <c r="C53">
-        <v>2.2000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53" s="3">
         <v>1000</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
@@ -1580,31 +1441,38 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55"/>
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>1.2</v>
+      </c>
       <c r="D55" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55" s="3">
         <v>1000</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56" s="3">
         <v>1000</v>
@@ -1615,31 +1483,38 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58"/>
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>1.3</v>
+      </c>
       <c r="D58" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -1650,23 +1525,21 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="6"/>
     </row>
@@ -1678,10 +1551,10 @@
         <v>12</v>
       </c>
       <c r="C60">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
@@ -1692,78 +1565,89 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" s="3">
         <v>1000</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64"/>
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>0.9</v>
+      </c>
       <c r="D64" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64" s="3">
         <v>1000</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="6"/>
     </row>
@@ -1771,24 +1655,36 @@
       <c r="A65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C65"/>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
       <c r="D65" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E65" s="3">
         <v>1000</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66"/>
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>1.6</v>
+      </c>
       <c r="D66" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
@@ -1799,16 +1695,23 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67"/>
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>0.8</v>
+      </c>
       <c r="D67" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67" s="3">
         <v>1000</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -1821,10 +1724,10 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E68" s="3">
         <v>1000</v>
@@ -1835,95 +1738,102 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E69" s="3">
         <v>1000</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E70" s="3">
         <v>1000</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E71" s="3">
         <v>1000</v>
       </c>
-      <c r="F71" s="3">
-        <v>0.9</v>
-      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E72" s="3">
         <v>1000</v>
       </c>
       <c r="F72" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73"/>
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>1.7</v>
+      </c>
       <c r="D73" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E73" s="3">
         <v>1000</v>
@@ -1936,108 +1846,115 @@
       <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C74"/>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>0.8</v>
+      </c>
       <c r="D74" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74" s="3">
         <v>1000</v>
       </c>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
       </c>
       <c r="C75">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E75" s="3">
         <v>1000</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3">
+        <v>0.5</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
       </c>
       <c r="F76" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E77" s="3">
         <v>1000</v>
       </c>
       <c r="F77" s="3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C78"/>
       <c r="D78" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E78" s="3">
         <v>1000</v>
       </c>
-      <c r="F78" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79"/>
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
       <c r="D79" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79" s="3">
         <v>1000</v>
@@ -2047,33 +1964,26 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C80"/>
       <c r="D80" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E80" s="3">
         <v>1000</v>
       </c>
-      <c r="F80" s="3">
-        <v>0.6</v>
-      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C81"/>
       <c r="D81" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E81" s="3">
         <v>1000</v>
@@ -2088,7 +1998,7 @@
       </c>
       <c r="C82"/>
       <c r="D82" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E82" s="3">
         <v>1000</v>
@@ -2099,11 +2009,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83"/>
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -2114,16 +2029,23 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84"/>
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D84" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84" s="3">
         <v>1000</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="6"/>
     </row>
@@ -2133,7 +2055,7 @@
       </c>
       <c r="C85"/>
       <c r="D85" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E85" s="3">
         <v>1000</v>
@@ -2144,11 +2066,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86"/>
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D86" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86" s="3">
         <v>1000</v>
@@ -2159,11 +2086,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87"/>
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D87" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E87" s="3">
         <v>1000</v>
@@ -2174,33 +2106,31 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88">
-        <v>1.4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C88"/>
       <c r="D88" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E88" s="3">
         <v>1000</v>
       </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89"/>
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>1.6</v>
+      </c>
       <c r="D89" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89" s="3">
         <v>1000</v>
@@ -2211,16 +2141,11 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90">
-        <v>1.4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C90"/>
       <c r="D90" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E90" s="3">
         <v>1000</v>
@@ -2231,16 +2156,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
       </c>
       <c r="C91">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E91" s="3">
         <v>1000</v>
@@ -2253,9 +2178,14 @@
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C92"/>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>1.2</v>
+      </c>
       <c r="D92" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E92" s="3">
         <v>1000</v>
@@ -2266,36 +2196,38 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="10">
-        <v>3.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93" s="3">
         <v>1000</v>
       </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="10">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" s="3">
         <v>1000</v>
@@ -2306,33 +2238,31 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" s="3">
         <v>1000</v>
       </c>
-      <c r="F95" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E96" s="3">
         <v>1000</v>
@@ -2343,11 +2273,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="10">
+        <v>3.1</v>
+      </c>
       <c r="D97" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E97" s="3">
         <v>1000</v>
@@ -2358,11 +2293,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="10">
+        <v>1</v>
+      </c>
       <c r="D98" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E98" s="3">
         <v>1000</v>
@@ -2372,31 +2312,38 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D99" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E99" s="3">
         <v>1000</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3">
+        <v>0.8</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="5">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E100" s="3">
         <v>1000</v>
@@ -2406,16 +2353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="5">
-        <v>3.6</v>
+        <v>18</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
@@ -2428,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E102" s="3">
         <v>1000</v>
@@ -2439,16 +2380,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="5">
-        <v>2.9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E103" s="3">
         <v>1000</v>
@@ -2459,10 +2394,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="5">
+        <v>3.1</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E104" s="3">
         <v>1000</v>
@@ -2473,10 +2414,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1.3</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E105" s="3">
         <v>1000</v>
@@ -2486,10 +2433,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1.5</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E106" s="3">
         <v>1000</v>
@@ -2503,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E107" s="3">
         <v>1000</v>
@@ -2514,10 +2467,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E108" s="3">
         <v>1000</v>
@@ -2531,7 +2484,7 @@
         <v>18</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E109" s="3">
         <v>1000</v>
@@ -2542,24 +2495,32 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1.2</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E110" s="3">
         <v>1000</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3">
+        <v>0.9</v>
+      </c>
       <c r="G110" s="3"/>
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E111" s="3">
         <v>1000</v>
@@ -2570,10 +2531,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E112" s="3">
         <v>1000</v>
@@ -2587,7 +2548,7 @@
         <v>18</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E113" s="3">
         <v>1000</v>
@@ -2598,34 +2559,52 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E114" s="3">
         <v>1000</v>
+      </c>
+      <c r="F114">
+        <v>0.8</v>
       </c>
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E115" s="3">
         <v>1000</v>
+      </c>
+      <c r="F115">
+        <v>0.9</v>
       </c>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E116" s="3">
         <v>1000</v>
@@ -2634,22 +2613,31 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="5">
+        <v>1.2</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E117" s="3">
         <v>1000</v>
+      </c>
+      <c r="F117">
+        <v>0.9</v>
       </c>
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E118" s="3">
         <v>1000</v>
@@ -2657,16 +2645,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="5">
-        <v>2.7</v>
+        <v>18</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E119" s="3">
         <v>1000</v>
@@ -2674,10 +2656,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E120" s="3">
         <v>1000</v>
@@ -2685,10 +2667,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E121" s="3">
         <v>1000</v>
@@ -2702,7 +2684,7 @@
         <v>18</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E122" s="3">
         <v>1000</v>
@@ -2711,10 +2693,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="5">
+        <v>2.8</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E123" s="3">
         <v>1000</v>
@@ -2723,10 +2711,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E124" s="3">
         <v>1000</v>
@@ -2735,10 +2723,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E125" s="3">
         <v>1000</v>
@@ -2747,10 +2735,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E126" s="3">
         <v>1000</v>
@@ -2759,10 +2747,16 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2.6</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E127" s="3">
         <v>1000</v>
@@ -2771,13 +2765,22 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.7</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E128" s="3">
         <v>1000</v>
+      </c>
+      <c r="F128">
+        <v>0.5</v>
       </c>
       <c r="H128" s="6"/>
     </row>
@@ -2787,7 +2790,7 @@
       </c>
       <c r="B129" s="3"/>
       <c r="D129" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E129" s="3">
         <v>1000</v>
@@ -2796,11 +2799,11 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B130" s="3"/>
       <c r="D130" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E130" s="3">
         <v>1000</v>
@@ -2809,11 +2812,11 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B131" s="3"/>
       <c r="D131" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E131" s="3">
         <v>1000</v>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="B132" s="3"/>
       <c r="D132" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E132" s="3">
         <v>1000</v>
@@ -2835,11 +2838,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B133" s="3"/>
       <c r="D133" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E133" s="3">
         <v>1000</v>
@@ -2848,11 +2851,11 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B134" s="3"/>
       <c r="D134" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E134" s="3">
         <v>1000</v>
@@ -2861,11 +2864,11 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B135" s="3"/>
       <c r="D135" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E135" s="3">
         <v>1000</v>
@@ -2874,11 +2877,11 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B136" s="3"/>
       <c r="D136" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E136" s="3">
         <v>1000</v>
@@ -2891,7 +2894,7 @@
       </c>
       <c r="B137" s="3"/>
       <c r="D137" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E137" s="3">
         <v>1000</v>
@@ -2904,7 +2907,7 @@
       </c>
       <c r="B138" s="3"/>
       <c r="D138" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E138" s="3">
         <v>1000</v>
@@ -2917,7 +2920,7 @@
       </c>
       <c r="B139" s="3"/>
       <c r="D139" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E139" s="3">
         <v>1000</v>
@@ -2926,16 +2929,11 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="5">
-        <v>3.3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B140" s="3"/>
       <c r="D140" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E140" s="3">
         <v>1000</v>
@@ -2944,11 +2942,11 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B141" s="3"/>
       <c r="D141" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E141" s="3">
         <v>1000</v>
@@ -2957,16 +2955,11 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="5">
-        <v>2.7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B142" s="3"/>
       <c r="D142" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E142" s="3">
         <v>1000</v>
@@ -2975,11 +2968,11 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B143" s="3"/>
       <c r="D143" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E143" s="3">
         <v>1000</v>
@@ -2990,11 +2983,11 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B144" s="3"/>
       <c r="D144" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E144" s="3">
         <v>1000</v>
@@ -3003,11 +2996,11 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B145" s="3"/>
       <c r="D145" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E145" s="3">
         <v>1000</v>
@@ -3016,11 +3009,11 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B146" s="3"/>
       <c r="D146" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E146" s="3">
         <v>1000</v>
@@ -3028,970 +3021,1969 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="3"/>
+      <c r="A147" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B147" s="3"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="3"/>
+      <c r="D147" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1000</v>
+      </c>
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="3"/>
+      <c r="A148" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B148" s="3"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="3"/>
+      <c r="D148" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1000</v>
+      </c>
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="3"/>
+      <c r="A149" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B149" s="3"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="3"/>
+      <c r="D149" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1000</v>
+      </c>
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
+      <c r="A150" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B150" s="3"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="3"/>
+      <c r="D150" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1000</v>
+      </c>
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
+      <c r="A151" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B151" s="3"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="3"/>
+      <c r="D151" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="3">
+        <v>1000</v>
+      </c>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
+      <c r="A152" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B152" s="3"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="3"/>
+      <c r="D152" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="3">
+        <v>1000</v>
+      </c>
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
+      <c r="A153" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B153" s="3"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="3"/>
+      <c r="D153" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1000</v>
+      </c>
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
+      <c r="A154" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B154" s="3"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="3"/>
+      <c r="D154" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="3">
+        <v>1000</v>
+      </c>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="3"/>
+      <c r="A155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1000</v>
+      </c>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="3"/>
+      <c r="A156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1000</v>
+      </c>
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
+      <c r="A157" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B157" s="3"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="3"/>
+      <c r="D157" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1000</v>
+      </c>
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="3"/>
+      <c r="A158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1000</v>
+      </c>
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
+      <c r="A159" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B159" s="3"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="3"/>
+      <c r="D159" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1000</v>
+      </c>
       <c r="G159" s="3"/>
       <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
+      <c r="A160" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B160" s="3"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="3"/>
+      <c r="D160" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1000</v>
+      </c>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
+      <c r="A161" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B161" s="3"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="3"/>
+      <c r="D161" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1000</v>
+      </c>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="3"/>
+      <c r="A162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1000</v>
+      </c>
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="3"/>
+      <c r="A163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1000</v>
+      </c>
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="3"/>
+      <c r="A164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1000</v>
+      </c>
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
+      <c r="A165" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B165" s="3"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="3"/>
+      <c r="D165" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1000</v>
+      </c>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B166" s="3"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="3"/>
+      <c r="D166" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1000</v>
+      </c>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="3"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="3"/>
+      <c r="A167" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1000</v>
+      </c>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="3"/>
+      <c r="A168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1000</v>
+      </c>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="3"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="3"/>
+      <c r="A169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1000</v>
+      </c>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="3"/>
+      <c r="A170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1000</v>
+      </c>
       <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1000</v>
+      </c>
       <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1000</v>
+      </c>
       <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="3"/>
+      <c r="A173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1000</v>
+      </c>
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="3"/>
+      <c r="A174" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1000</v>
+      </c>
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="3"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="3"/>
+      <c r="A175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1000</v>
+      </c>
       <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1000</v>
+      </c>
       <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="3"/>
+      <c r="A177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1000</v>
+      </c>
       <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="3"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1000</v>
+      </c>
       <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="3"/>
+      <c r="A179" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1000</v>
+      </c>
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="3"/>
+      <c r="A181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1000</v>
+      </c>
       <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="3"/>
+      <c r="A182" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1000</v>
+      </c>
       <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="3"/>
+      <c r="A183" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1000</v>
+      </c>
       <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1000</v>
+      </c>
       <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="3"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="3"/>
+      <c r="A185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="3"/>
+      <c r="A186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1000</v>
+      </c>
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="3"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="3"/>
+      <c r="A187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1000</v>
+      </c>
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="3"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="3"/>
+      <c r="A188" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1000</v>
+      </c>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="3"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="3"/>
+      <c r="A189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1000</v>
+      </c>
       <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="3"/>
+      <c r="A190" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1000</v>
+      </c>
       <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="3"/>
+      <c r="A191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1000</v>
+      </c>
       <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="3"/>
+      <c r="A192" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F192">
+        <v>0.7</v>
+      </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="3"/>
+      <c r="A193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="3">
+        <v>1000</v>
+      </c>
       <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="3"/>
+      <c r="A194" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1000</v>
+      </c>
       <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="3"/>
+      <c r="A195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="3">
+        <v>1000</v>
+      </c>
       <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="3"/>
+      <c r="A196" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1000</v>
+      </c>
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="3"/>
+      <c r="A197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1000</v>
+      </c>
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="3"/>
+      <c r="A198" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1000</v>
+      </c>
       <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="3"/>
+      <c r="A199" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1000</v>
+      </c>
       <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="3"/>
+      <c r="A200" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="3">
+        <v>1000</v>
+      </c>
       <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="3"/>
+      <c r="A201" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1000</v>
+      </c>
       <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="3"/>
+      <c r="A202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1000</v>
+      </c>
       <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="3"/>
+      <c r="A203" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="3">
+        <v>1000</v>
+      </c>
       <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="3"/>
+      <c r="A204" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1000</v>
+      </c>
       <c r="G204" s="6"/>
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="3"/>
+      <c r="A205" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1000</v>
+      </c>
       <c r="G205" s="6"/>
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="3"/>
+      <c r="A206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1000</v>
+      </c>
       <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="3"/>
+      <c r="A207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="3"/>
+      <c r="A208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1000</v>
+      </c>
       <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="3"/>
+      <c r="A209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1000</v>
+      </c>
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="3"/>
+      <c r="A210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1000</v>
+      </c>
       <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="3"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="3"/>
+      <c r="A211" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1000</v>
+      </c>
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="3"/>
+      <c r="A212" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1000</v>
+      </c>
       <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="3"/>
+      <c r="A213" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1000</v>
+      </c>
       <c r="H213" s="4"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="3"/>
+      <c r="A214" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1000</v>
+      </c>
       <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="3"/>
+      <c r="A215" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1000</v>
+      </c>
       <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="3"/>
+      <c r="A216" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1000</v>
+      </c>
       <c r="H216" s="6"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="3"/>
+      <c r="A217" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="3">
+        <v>1000</v>
+      </c>
       <c r="H217" s="6"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="3"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="3"/>
+      <c r="A218" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1000</v>
+      </c>
       <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="3"/>
+      <c r="A219" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1000</v>
+      </c>
       <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="3"/>
+      <c r="A220" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="3">
+        <v>1000</v>
+      </c>
       <c r="H220" s="4"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="3"/>
+      <c r="A221" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1000</v>
+      </c>
       <c r="H221" s="6"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="3"/>
+      <c r="A222" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1000</v>
+      </c>
       <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="3"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="3"/>
+      <c r="A223" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="3"/>
+      <c r="A224" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="225" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="3"/>
+      <c r="A225" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="226" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="3"/>
+      <c r="A226" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="227" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="3"/>
+      <c r="A227" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1000</v>
+      </c>
       <c r="H227" s="6"/>
     </row>
     <row r="228" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="3"/>
+      <c r="A228" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="229" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="3"/>
+      <c r="A229" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1000</v>
+      </c>
       <c r="H229" s="6"/>
       <c r="XFD229" s="6"/>
     </row>
     <row r="230" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="3"/>
+      <c r="A230" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1000</v>
+      </c>
       <c r="H230" s="4"/>
     </row>
     <row r="231" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="3"/>
+      <c r="A231" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1000</v>
+      </c>
       <c r="H231" s="6"/>
     </row>
     <row r="232" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="3"/>
+      <c r="A232" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="233" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="234" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="3"/>
+      <c r="A234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="3">
+        <v>1000</v>
+      </c>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="3"/>
+      <c r="A235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="236" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="3"/>
+      <c r="A236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="237" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="3"/>
+      <c r="A237" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F237">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="3"/>
+      <c r="A238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="3">
+        <v>1000</v>
+      </c>
       <c r="H238" s="6"/>
     </row>
     <row r="239" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="3"/>
+      <c r="A239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="3">
+        <v>1000</v>
+      </c>
       <c r="H239" s="6"/>
     </row>
     <row r="240" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="3"/>
+      <c r="A240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1000</v>
+      </c>
       <c r="H240" s="4"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="3"/>
+      <c r="A241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="3">
+        <v>1000</v>
+      </c>
       <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="3"/>
+      <c r="A242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="3"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="3"/>
+      <c r="A243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="3"/>
+      <c r="A244" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="3">
+        <v>1000</v>
+      </c>
       <c r="H244" s="6"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F245">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="3"/>
+      <c r="A246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="3"/>
+      <c r="A247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1000</v>
+      </c>
       <c r="H247" s="4"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="3"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="3"/>
+      <c r="A248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="3"/>
+      <c r="A249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="3"/>
+      <c r="A250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="3"/>
+      <c r="A251" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="3">
+        <v>1000</v>
+      </c>
       <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="3"/>
+      <c r="A252" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="3"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="3"/>
+      <c r="A253" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="3"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="3"/>
+      <c r="A254" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1000</v>
+      </c>
       <c r="H254" s="4"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="3"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="3"/>
+      <c r="A255" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1000</v>
+      </c>
       <c r="H255" s="4"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="3"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="3"/>
+      <c r="A256" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1000</v>
+      </c>
       <c r="H256" s="6"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="3"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="3"/>
+      <c r="A257" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="3"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="3"/>
+      <c r="A258" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1000</v>
+      </c>
       <c r="H258" s="4"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="3"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="3"/>
+      <c r="A259" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="3"/>
+      <c r="A260" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="3"/>
+      <c r="A261" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="3"/>
+      <c r="A262" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="3"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="3"/>
+      <c r="A263" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1000</v>
+      </c>
       <c r="H263" s="6"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="3"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="3"/>
+      <c r="A264" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1000</v>
+      </c>
       <c r="H264" s="6"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="3"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="3"/>
+      <c r="A265" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="3">
+        <v>1000</v>
+      </c>
       <c r="H265" s="6"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="3"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="3"/>
+      <c r="A266" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1000</v>
+      </c>
       <c r="H266" s="6"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="3"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="3"/>
+      <c r="A267" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="3">
+        <v>1000</v>
+      </c>
       <c r="H267" s="3"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="3"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="3"/>
+      <c r="A268" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="3">
+        <v>1000</v>
+      </c>
       <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="3"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="3"/>
+      <c r="A269" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="3"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="3"/>
+      <c r="A270" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1000</v>
+      </c>
       <c r="H270" s="3"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="3"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="3"/>
+      <c r="A271" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="3"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="3"/>
+      <c r="A272" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="3">
+        <v>1000</v>
+      </c>
       <c r="H272" s="4"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="3"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="3"/>
+      <c r="A273" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="3">
+        <v>1000</v>
+      </c>
       <c r="H273" s="4"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="3"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="3"/>
+      <c r="A274" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="3">
+        <v>1000</v>
+      </c>
       <c r="H274" s="4"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="3"/>
+      <c r="A275" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="3"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="3"/>
+      <c r="A276" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="3"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="3"/>
+      <c r="A277" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="3"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="3"/>
+      <c r="A278" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="3">
+        <v>1000</v>
+      </c>
       <c r="H278" s="6"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="3"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="3"/>
+      <c r="A279" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="3"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="3"/>
+      <c r="A280" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="3"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="3"/>
+      <c r="A281" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="3">
+        <v>1000</v>
+      </c>
       <c r="H281" s="4"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="3"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="3"/>
+      <c r="A282" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="3">
+        <v>1000</v>
+      </c>
       <c r="H282" s="6"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="3"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="3"/>
+      <c r="A283" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="3"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="3"/>
+      <c r="A284" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="3"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="3"/>
+      <c r="A285" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="3">
+        <v>1000</v>
+      </c>
       <c r="H285" s="4"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="3"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="3"/>
+      <c r="A286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="3">
+        <v>1000</v>
+      </c>
       <c r="H286" s="6"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="3"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="3"/>
+      <c r="A287" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="3">
+        <v>1000</v>
+      </c>
       <c r="H287" s="6"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="3"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="3"/>
+      <c r="A288" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1000</v>
+      </c>
       <c r="H288" s="4"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="3"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="3"/>
+      <c r="A289" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="3">
+        <v>1000</v>
+      </c>
       <c r="H289" s="4"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="4"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="3"/>
+      <c r="A290" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F290">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="4"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="3"/>
+      <c r="A291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="5">
+        <v>2</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="4"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="3"/>
+      <c r="A292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="3">
+        <v>1000</v>
+      </c>
       <c r="H292" s="6"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="4"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="3"/>
+      <c r="A293" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="4"/>
+      <c r="A294" s="3"/>
       <c r="D294" s="8"/>
       <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="4"/>
+      <c r="A295" s="3"/>
       <c r="D295" s="8"/>
       <c r="E295" s="3"/>
       <c r="H295" s="6"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="4"/>
+      <c r="A296" s="3"/>
       <c r="D296" s="8"/>
       <c r="E296" s="3"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" s="4"/>
+      <c r="A297" s="3"/>
       <c r="D297" s="8"/>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298" s="4"/>
+      <c r="A298" s="3"/>
       <c r="D298" s="8"/>
       <c r="E298" s="3"/>
       <c r="H298" s="4"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A299" s="4"/>
+      <c r="A299" s="3"/>
       <c r="D299" s="8"/>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" s="4"/>
+      <c r="A300" s="3"/>
       <c r="D300" s="8"/>
       <c r="E300" s="3"/>
       <c r="H300" s="6"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" s="4"/>
+      <c r="A301" s="3"/>
       <c r="D301" s="8"/>
       <c r="E301" s="3"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" s="4"/>
+      <c r="A302" s="3"/>
       <c r="D302" s="8"/>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" s="4"/>
+      <c r="A303" s="3"/>
       <c r="D303" s="8"/>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
+      <c r="A304" s="3"/>
       <c r="D304" s="8"/>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="4"/>
+      <c r="A305" s="3"/>
       <c r="D305" s="8"/>
       <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
+      <c r="A306" s="3"/>
       <c r="D306" s="8"/>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
+      <c r="A307" s="3"/>
       <c r="D307" s="8"/>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
+      <c r="A308" s="3"/>
       <c r="D308" s="8"/>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
+      <c r="A309" s="3"/>
       <c r="D309" s="8"/>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="4"/>
+      <c r="A310" s="3"/>
       <c r="D310" s="8"/>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="4"/>
+      <c r="A311" s="3"/>
       <c r="D311" s="8"/>
       <c r="E311" s="3"/>
       <c r="H311" s="3"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" s="4"/>
+      <c r="A312" s="3"/>
       <c r="D312" s="8"/>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
+      <c r="A313" s="3"/>
       <c r="D313" s="8"/>
       <c r="E313" s="3"/>
     </row>
